--- a/桌面组/桌面组各类表需求整理_第二版.xlsx
+++ b/桌面组/桌面组各类表需求整理_第二版.xlsx
@@ -4,317 +4,317 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="样例" sheetId="1" r:id="rId1"/>
     <sheet name="桌面" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="桌面新设计" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$4:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样例!$G$4:$G$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="470">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>网点
 条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>网点名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>开通
 日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>维护
 日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>维护
 周期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>维护
 类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>维护
 IT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>通知
 方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>广东深圳公司宝安区光明分部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>徐迪军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>广东深圳公司福田区新华强广场分部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统自动生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导入站点资料匹配</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统自动计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>变更负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停止操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新开大客户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新开站点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>根据登录人自动标记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电话通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>短信通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>布谷鸟通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>告知网点管理部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统自动生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>筛选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>筛选——</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>申请时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>维护日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>维护周数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>一级网点条码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>一级网点名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>一级网点负责人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>二级网点名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>广东深圳公司龙岗区观澜新塘分部</t>
   </si>
   <si>
     <t>林崇彬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>观澜新塘何华林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>广东深圳公司罗湖区源兴居分部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>王高平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>源兴居分部姚军</t>
   </si>
   <si>
     <t>二级站点资料表头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>二级网点条码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>申请部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>哲盟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在职情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>维护IT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>维护日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质控部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>祝新国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>入职</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>郭明星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>操作部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>章悦萍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>哲盟账号申请登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>站点资料表头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>定好组织结构筛选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9点未
 上传数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>18点未
 上传数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>深圳公司
 离线扫描</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>集包到件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>集包未到件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>集包数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>装车数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>哲盟数据检查登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>申请人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vpn账号登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
@@ -360,7 +360,7 @@
   </si>
   <si>
     <t>布谷鸟、邮箱账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>OA登记日期</t>
@@ -433,11 +433,11 @@
   </si>
   <si>
     <t>在职</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>申请人</t>
@@ -462,7 +462,7 @@
   </si>
   <si>
     <t>OA账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>质控部</t>
@@ -496,170 +496,170 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>品牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打印机位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>资产类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>端口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备用墨盒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备用墨粉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设备性能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主要功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>纸张支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>加墨维护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上次加墨时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>下次加墨时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>兄弟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DCP-9020CDN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>观澜总部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4楼-总经办</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>网络</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>172.16.4.6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>办公室自备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>彩色激光多功能一体机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打印、复印、扫描</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>京瓷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1125MFD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>观澜总部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4楼-会计室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>租赁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>网络</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>172.16.4.5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>IT办公室1桶新的，4楼一小半桶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>黑白激光多功能一体机</t>
   </si>
   <si>
     <t>打印/复印/扫描/传真</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打印机登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工号</t>
@@ -765,7 +765,7 @@
   </si>
   <si>
     <t>管理电脑统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PDA品牌</t>
@@ -826,55 +826,55 @@
   </si>
   <si>
     <t>小仓巴枪电脑登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>远程配置IP</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>管理账号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>管理密码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SSID</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>备注说明</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>301网点管理部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>172.16.3.231</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>admin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>9qe2wytt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>junda_wdgl</t>
@@ -884,38 +884,38 @@
   </si>
   <si>
     <t>网点管理部自购</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>308曹总办公室</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>172.16.3.108</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>admin</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>9qe2wytt</t>
   </si>
   <si>
     <t>CMCC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>yd518000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>副总专用，位于曹总办公桌下</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>园区wifi管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点A</t>
@@ -991,15 +991,665 @@
   </si>
   <si>
     <t>电话线分布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>现在已改成一个字段了：功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上方带1的表示要进行快速查询功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码（后）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN密码（前）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd*2015</t>
+  </si>
+  <si>
+    <t>一楼培训室</t>
+  </si>
+  <si>
+    <t>yd0039</t>
+  </si>
+  <si>
+    <t>8JydhzxP</t>
+  </si>
+  <si>
+    <t>梁全富</t>
+  </si>
+  <si>
+    <t>大客服部</t>
+  </si>
+  <si>
+    <t>yd0040</t>
+  </si>
+  <si>
+    <t>68H7aj8h</t>
+  </si>
+  <si>
+    <t>周秋红</t>
+  </si>
+  <si>
+    <t>yd0041</t>
+  </si>
+  <si>
+    <t>6yPQUH2x</t>
+  </si>
+  <si>
+    <t>维护类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>—下拉列表—</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记日期</t>
+  </si>
+  <si>
+    <t>IMO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取当前时间（自动）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前时间计算（自动）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>—等等—</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMO、邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA账号(密码:a)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算部</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海芬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中转站结算文员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YD6511</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟家瑜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服部</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵珍珍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>座席文员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YD6874</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟家瑜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息与流程管理部</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢剑文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件专员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YD6897</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此表不用做任何改变</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件操作部</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈朝辉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YD7204</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaohui_chen@szexpress.com.cn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yd112233</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用一个月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算部</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓霏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YD5229</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fei_deng@szexpress.com.cn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息与流程管理部</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王长健</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YD7361</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>changlin_wang@szexpress.com.cn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟家瑜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用一个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>打印机位置</t>
+  </si>
+  <si>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>端口</t>
+  </si>
+  <si>
+    <t>备用墨盒</t>
+  </si>
+  <si>
+    <t>备用墨粉</t>
+  </si>
+  <si>
+    <t>设备性能</t>
+  </si>
+  <si>
+    <t>主要功能</t>
+  </si>
+  <si>
+    <t>纸张支持</t>
+  </si>
+  <si>
+    <t>加墨维护</t>
+  </si>
+  <si>
+    <t>上次加墨时间</t>
+  </si>
+  <si>
+    <t>下次加墨时间</t>
+  </si>
+  <si>
+    <t>京瓷</t>
+  </si>
+  <si>
+    <t>1125MFD</t>
+  </si>
+  <si>
+    <t>观澜总部</t>
+  </si>
+  <si>
+    <t>4楼-会计室</t>
+  </si>
+  <si>
+    <t>租赁</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>172.16.4.5</t>
+  </si>
+  <si>
+    <t>IT办公室1桶新的，4楼一小半桶</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>打印/复印/扫描/传真</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>美村村田</t>
+  </si>
+  <si>
+    <t>MFX-1820/2010</t>
+  </si>
+  <si>
+    <t>3楼-网点管理部</t>
+  </si>
+  <si>
+    <t>172.16.3.10</t>
+  </si>
+  <si>
+    <t>IT办公室1个新的墨粉盒，1个半盒</t>
+  </si>
+  <si>
+    <t>数码复合机</t>
+  </si>
+  <si>
+    <t>打印/复印/连续扫描/传真</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>售后</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>M176</t>
+  </si>
+  <si>
+    <t>3楼-总经办曾总</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>172.16.3.32</t>
+  </si>
+  <si>
+    <t>办公室自备</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>彩色激光多功能一体机</t>
+  </si>
+  <si>
+    <t>打印/复印/扫描</t>
+  </si>
+  <si>
+    <t>加墨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理电脑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心</t>
+  </si>
+  <si>
+    <t>费龙波</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>总经办</t>
+  </si>
+  <si>
+    <t>xz016</t>
+  </si>
+  <si>
+    <t>172.16.3.97</t>
+  </si>
+  <si>
+    <t>d8-cb-8a-c7-0a-aa</t>
+  </si>
+  <si>
+    <t>i7 4790K</t>
+  </si>
+  <si>
+    <t>Z97</t>
+  </si>
+  <si>
+    <t>备用</t>
+  </si>
+  <si>
+    <t>主管</t>
+  </si>
+  <si>
+    <t>gmo013</t>
+  </si>
+  <si>
+    <t>172.16.3.95</t>
+  </si>
+  <si>
+    <t>d8-cb-8a-c7-0a-c7</t>
+  </si>
+  <si>
+    <t>何胜利</t>
+  </si>
+  <si>
+    <t>YD-4298</t>
+  </si>
+  <si>
+    <t>高级经理</t>
+  </si>
+  <si>
+    <t>大仓2楼-201</t>
+  </si>
+  <si>
+    <t>it002</t>
+  </si>
+  <si>
+    <t>172.16.1.251</t>
+  </si>
+  <si>
+    <t>fc-aa-14-b8-7a-ba</t>
+  </si>
+  <si>
+    <t>i3 4160</t>
+  </si>
+  <si>
+    <t>技嘉</t>
+  </si>
+  <si>
+    <t>H81</t>
+  </si>
+  <si>
+    <t>小仓巴枪电脑登记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi地址</t>
+  </si>
+  <si>
+    <t>集包104</t>
+  </si>
+  <si>
+    <t>67251621136911</t>
+  </si>
+  <si>
+    <t>b4-29-3d-01-6a-8a</t>
+  </si>
+  <si>
+    <t>172.16.2.221/222</t>
+  </si>
+  <si>
+    <t>凯利</t>
+  </si>
+  <si>
+    <t>集包105</t>
+  </si>
+  <si>
+    <t>160910140250298</t>
+  </si>
+  <si>
+    <t>28-fb-d3-f7-ce-1b</t>
+  </si>
+  <si>
+    <t>集包2</t>
+  </si>
+  <si>
+    <t>集包201</t>
+  </si>
+  <si>
+    <t>67221543719053</t>
+  </si>
+  <si>
+    <t>00-0a-f5-86-34-24</t>
+  </si>
+  <si>
+    <t>172.16.2.225/226</t>
+  </si>
+  <si>
+    <t>Junda-xc06</t>
+  </si>
+  <si>
+    <t>端口/远程配置IP</t>
+  </si>
+  <si>
+    <t>管理账号</t>
+  </si>
+  <si>
+    <t>管理密码</t>
+  </si>
+  <si>
+    <t>登录账户</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>SSID</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>园区wifi管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公楼区</t>
+  </si>
+  <si>
+    <t>202猫屋</t>
+  </si>
+  <si>
+    <t>172.16.2.121:8888</t>
+  </si>
+  <si>
+    <t>mw002</t>
+  </si>
+  <si>
+    <t>mworg002</t>
+  </si>
+  <si>
+    <t>猫屋自购路由</t>
+  </si>
+  <si>
+    <t>207客服3</t>
+  </si>
+  <si>
+    <t>172.16.2.232</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>9qe3wytt</t>
+  </si>
+  <si>
+    <t>Junda-kf3</t>
+  </si>
+  <si>
+    <t>Junda+1230.</t>
+  </si>
+  <si>
+    <t>301网点管理部</t>
+  </si>
+  <si>
+    <t>172.16.3.231</t>
+  </si>
+  <si>
+    <t>网点管理部自购的设备</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话线分布</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新电话线分布</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入话机数</t>
+  </si>
+  <si>
+    <t>行政部</t>
+  </si>
+  <si>
+    <t>采购号码</t>
+  </si>
+  <si>
+    <t>经理招聘</t>
+  </si>
+  <si>
+    <t>通</t>
+  </si>
+  <si>
+    <t>保安室</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1011,12 +1661,20 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1322,8 +1980,223 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1498,8 +2371,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1741,603 +2638,1357 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="58" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="37" fillId="3" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="32" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="82" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="3" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="53" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="70" fillId="7" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="70" fillId="7" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="32" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="70" fillId="32" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="127" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="70" fillId="3" borderId="1" xfId="127" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="127" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="1" xfId="127" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="32" borderId="1" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="21" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="154">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="81"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="13"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="85"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="86"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="16"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="87"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="17"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="88"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="18"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="89"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="19"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="90"/>
     <cellStyle name="20% - 着色 1 2" xfId="20"/>
+    <cellStyle name="20% - 着色 1 3" xfId="91"/>
     <cellStyle name="20% - 着色 2 2" xfId="21"/>
+    <cellStyle name="20% - 着色 2 3" xfId="92"/>
     <cellStyle name="20% - 着色 3 2" xfId="22"/>
+    <cellStyle name="20% - 着色 3 3" xfId="93"/>
     <cellStyle name="20% - 着色 4 2" xfId="23"/>
+    <cellStyle name="20% - 着色 4 3" xfId="94"/>
     <cellStyle name="20% - 着色 5 2" xfId="24"/>
+    <cellStyle name="20% - 着色 5 3" xfId="95"/>
     <cellStyle name="20% - 着色 6 2" xfId="25"/>
+    <cellStyle name="20% - 着色 6 3" xfId="96"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="26"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="97"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="27"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="98"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="28"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="99"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="29"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="100"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="101"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="31"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="102"/>
     <cellStyle name="40% - 着色 1 2" xfId="32"/>
+    <cellStyle name="40% - 着色 1 3" xfId="103"/>
     <cellStyle name="40% - 着色 2 2" xfId="33"/>
+    <cellStyle name="40% - 着色 2 3" xfId="104"/>
     <cellStyle name="40% - 着色 3 2" xfId="34"/>
+    <cellStyle name="40% - 着色 3 3" xfId="105"/>
     <cellStyle name="40% - 着色 4 2" xfId="35"/>
+    <cellStyle name="40% - 着色 4 3" xfId="106"/>
     <cellStyle name="40% - 着色 5 2" xfId="36"/>
+    <cellStyle name="40% - 着色 5 3" xfId="107"/>
     <cellStyle name="40% - 着色 6 2" xfId="37"/>
+    <cellStyle name="40% - 着色 6 3" xfId="108"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="38"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="109"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="110"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="40"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="111"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="112"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="42"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="113"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="43"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="114"/>
     <cellStyle name="60% - 着色 1 2" xfId="44"/>
+    <cellStyle name="60% - 着色 1 3" xfId="115"/>
     <cellStyle name="60% - 着色 2 2" xfId="45"/>
+    <cellStyle name="60% - 着色 2 3" xfId="116"/>
     <cellStyle name="60% - 着色 3 2" xfId="46"/>
+    <cellStyle name="60% - 着色 3 3" xfId="117"/>
     <cellStyle name="60% - 着色 4 2" xfId="47"/>
+    <cellStyle name="60% - 着色 4 3" xfId="118"/>
     <cellStyle name="60% - 着色 5 2" xfId="48"/>
+    <cellStyle name="60% - 着色 5 3" xfId="119"/>
     <cellStyle name="60% - 着色 6 2" xfId="49"/>
+    <cellStyle name="60% - 着色 6 3" xfId="120"/>
     <cellStyle name="标题 1 2" xfId="51"/>
+    <cellStyle name="标题 1 3" xfId="122"/>
     <cellStyle name="标题 2 2" xfId="52"/>
+    <cellStyle name="标题 2 3" xfId="123"/>
     <cellStyle name="标题 3 2" xfId="53"/>
+    <cellStyle name="标题 3 3" xfId="124"/>
     <cellStyle name="标题 4 2" xfId="54"/>
+    <cellStyle name="标题 4 3" xfId="125"/>
     <cellStyle name="标题 5" xfId="50"/>
+    <cellStyle name="标题 6" xfId="121"/>
     <cellStyle name="差 2" xfId="55"/>
+    <cellStyle name="差 3" xfId="126"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="151"/>
     <cellStyle name="常规 2" xfId="9"/>
     <cellStyle name="常规 2 2" xfId="7"/>
     <cellStyle name="常规 2 2 2" xfId="6"/>
     <cellStyle name="常规 2 3" xfId="56"/>
     <cellStyle name="常规 2 4" xfId="80"/>
+    <cellStyle name="常规 2 5" xfId="127"/>
     <cellStyle name="常规 21" xfId="5"/>
     <cellStyle name="常规 27" xfId="4"/>
     <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="常规 3 2" xfId="153"/>
     <cellStyle name="常规 3 2 2 2 2" xfId="3"/>
     <cellStyle name="常规 3 4" xfId="8"/>
     <cellStyle name="常规 4" xfId="11"/>
     <cellStyle name="常规 5" xfId="1"/>
+    <cellStyle name="常规 5 2" xfId="83"/>
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 8" xfId="14"/>
+    <cellStyle name="常规 9" xfId="84"/>
+    <cellStyle name="超链接 2" xfId="82"/>
+    <cellStyle name="超链接 3" xfId="152"/>
     <cellStyle name="好 2" xfId="57"/>
+    <cellStyle name="好 3" xfId="128"/>
     <cellStyle name="汇总 2" xfId="58"/>
+    <cellStyle name="汇总 3" xfId="129"/>
     <cellStyle name="计算 2" xfId="59"/>
+    <cellStyle name="计算 3" xfId="130"/>
     <cellStyle name="检查单元格 2" xfId="60"/>
+    <cellStyle name="检查单元格 3" xfId="131"/>
     <cellStyle name="解释性文本 2" xfId="61"/>
+    <cellStyle name="解释性文本 3" xfId="132"/>
     <cellStyle name="警告文本 2" xfId="62"/>
+    <cellStyle name="警告文本 3" xfId="133"/>
     <cellStyle name="链接单元格 2" xfId="63"/>
+    <cellStyle name="链接单元格 3" xfId="134"/>
     <cellStyle name="强调文字颜色 1" xfId="64"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="135"/>
     <cellStyle name="强调文字颜色 2" xfId="65"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="136"/>
     <cellStyle name="强调文字颜色 3" xfId="66"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="137"/>
     <cellStyle name="强调文字颜色 4" xfId="67"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="138"/>
     <cellStyle name="强调文字颜色 5" xfId="68"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="139"/>
     <cellStyle name="强调文字颜色 6" xfId="69"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="140"/>
     <cellStyle name="适中 2" xfId="70"/>
+    <cellStyle name="适中 3" xfId="141"/>
     <cellStyle name="输出 2" xfId="71"/>
+    <cellStyle name="输出 3" xfId="142"/>
     <cellStyle name="输入 2" xfId="72"/>
+    <cellStyle name="输入 3" xfId="143"/>
     <cellStyle name="着色 1 2" xfId="73"/>
+    <cellStyle name="着色 1 3" xfId="144"/>
     <cellStyle name="着色 2 2" xfId="74"/>
+    <cellStyle name="着色 2 3" xfId="145"/>
     <cellStyle name="着色 3 2" xfId="75"/>
+    <cellStyle name="着色 3 3" xfId="146"/>
     <cellStyle name="着色 4 2" xfId="76"/>
+    <cellStyle name="着色 4 3" xfId="147"/>
     <cellStyle name="着色 5 2" xfId="77"/>
+    <cellStyle name="着色 5 3" xfId="148"/>
     <cellStyle name="着色 6 2" xfId="78"/>
+    <cellStyle name="着色 6 3" xfId="149"/>
     <cellStyle name="注释 2" xfId="79"/>
+    <cellStyle name="注释 3" xfId="150"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2643,23 +4294,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>59</v>
       </c>
@@ -2694,7 +4345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -2725,7 +4376,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>2</v>
       </c>
@@ -2756,7 +4407,7 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2764,7 +4415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2796,7 +4447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +4455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,7 +4463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2820,7 +4471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
@@ -2852,7 +4503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>1</v>
       </c>
@@ -2881,7 +4532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>2</v>
       </c>
@@ -2910,7 +4561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +4590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>58</v>
       </c>
@@ -2974,7 +4625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>1</v>
       </c>
@@ -3006,7 +4657,7 @@
       </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>2</v>
       </c>
@@ -3039,7 +4690,7 @@
       </c>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>3</v>
       </c>
@@ -3071,7 +4722,7 @@
       </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3103,7 +4754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>69</v>
       </c>
@@ -3138,7 +4789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>1</v>
       </c>
@@ -3168,7 +4819,7 @@
       </c>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>2</v>
       </c>
@@ -3198,7 +4849,7 @@
       </c>
       <c r="K33" s="24"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
@@ -3231,7 +4882,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3241,23 +4892,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3292,7 +4943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="66">
         <v>290</v>
       </c>
@@ -3322,7 +4973,7 @@
       </c>
       <c r="K3" s="66"/>
     </row>
-    <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -3369,7 +5020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="52">
         <v>461</v>
       </c>
@@ -3411,7 +5062,7 @@
       </c>
       <c r="O7" s="52"/>
     </row>
-    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="52">
         <v>465</v>
       </c>
@@ -3453,17 +5104,17 @@
       </c>
       <c r="O8" s="52"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>1</v>
       </c>
@@ -3474,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -3518,7 +5169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="52">
         <v>293</v>
       </c>
@@ -3553,7 +5204,7 @@
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
     </row>
-    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="52">
         <v>294</v>
       </c>
@@ -3588,7 +5239,7 @@
       <c r="M14" s="52"/>
       <c r="N14" s="52"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1</v>
       </c>
@@ -3599,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -3652,7 +5303,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B17" s="46">
         <v>1</v>
       </c>
@@ -3702,7 +5353,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B18" s="46">
         <v>2</v>
       </c>
@@ -3752,7 +5403,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
@@ -3766,73 +5417,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E21" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="96" t="s">
+      <c r="G21" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="96" t="s">
+      <c r="I21" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="J21" s="96" t="s">
+      <c r="J21" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="93" t="s">
+      <c r="K21" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93" t="s">
+      <c r="L21" s="94"/>
+      <c r="M21" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93" t="s">
+      <c r="N21" s="94"/>
+      <c r="O21" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93" t="s">
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="R21" s="93" t="s">
+      <c r="R21" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="S21" s="93"/>
-      <c r="T21" s="94" t="s">
+      <c r="S21" s="94"/>
+      <c r="T21" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="U21" s="95" t="s">
+      <c r="U21" s="96" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B22" s="93"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="94"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="62" t="s">
         <v>184</v>
       </c>
@@ -3851,17 +5502,17 @@
       <c r="P22" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="93"/>
+      <c r="Q22" s="94"/>
       <c r="R22" s="62" t="s">
         <v>184</v>
       </c>
       <c r="S22" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="T22" s="94"/>
-      <c r="U22" s="95"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T22" s="95"/>
+      <c r="U22" s="96"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="60">
         <v>1</v>
       </c>
@@ -3909,7 +5560,7 @@
       <c r="T23" s="60"/>
       <c r="U23" s="61"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="60">
         <v>2</v>
       </c>
@@ -3957,7 +5608,7 @@
       <c r="T24" s="60"/>
       <c r="U24" s="61"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
@@ -3977,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
@@ -4012,7 +5663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="71">
         <v>1</v>
       </c>
@@ -4044,7 +5695,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" s="73">
         <v>16</v>
       </c>
@@ -4074,7 +5725,7 @@
       </c>
       <c r="K29" s="69"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1</v>
       </c>
@@ -4085,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>249</v>
       </c>
@@ -4114,7 +5765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="74">
         <v>1</v>
       </c>
@@ -4140,7 +5791,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="74">
         <v>2</v>
       </c>
@@ -4166,7 +5817,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>1</v>
       </c>
@@ -4174,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>274</v>
       </c>
@@ -4215,7 +5866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="78">
         <v>1</v>
       </c>
@@ -4247,7 +5898,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="78">
         <v>2</v>
       </c>
@@ -4283,30 +5934,24 @@
       </c>
       <c r="M39" s="79"/>
     </row>
-    <row r="40" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I41" s="92"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I42" s="83"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:T22"/>
@@ -4317,8 +5962,14 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="O21:P21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G7" display="dongdong_xia@szexpress.com.cn"/>
   </hyperlinks>
@@ -4329,13 +5980,1864 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:W94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" style="100" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="108" customWidth="1"/>
+    <col min="3" max="18" width="12.77734375" style="100" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="100" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:15" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="183" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="184" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="185"/>
+      <c r="G2" s="187" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B4" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B5" s="100"/>
+      <c r="C5" s="101">
+        <v>518000039</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="102">
+        <v>2.3090319510723901E+17</v>
+      </c>
+      <c r="H5" s="101">
+        <v>13925206957</v>
+      </c>
+      <c r="I5" s="101" t="s">
+        <v>283</v>
+      </c>
+      <c r="J5" s="101" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="101"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101">
+        <v>518000040</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="102">
+        <v>2.3090319510723901E+17</v>
+      </c>
+      <c r="H6" s="101">
+        <v>13925206957</v>
+      </c>
+      <c r="I6" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="J6" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" s="101"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+    </row>
+    <row r="7" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B7" s="100"/>
+      <c r="C7" s="101">
+        <v>518000041</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="102">
+        <v>2.3090319510723901E+17</v>
+      </c>
+      <c r="H7" s="101">
+        <v>13925206957</v>
+      </c>
+      <c r="I7" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="J7" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="101"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="B8" s="100"/>
+      <c r="L8" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="M8" s="107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="L9" s="117"/>
+      <c r="M9" s="105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="L10" s="117"/>
+      <c r="M10" s="105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="L11" s="117"/>
+      <c r="M11" s="105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="M12" s="116" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F14" s="109" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B15" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="C16" s="120">
+        <v>42650</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16" s="151" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" s="120">
+        <v>42650</v>
+      </c>
+      <c r="L16" s="121">
+        <v>40</v>
+      </c>
+      <c r="M16" s="121">
+        <v>10</v>
+      </c>
+      <c r="N16" s="121">
+        <v>0</v>
+      </c>
+      <c r="O16" s="121"/>
+    </row>
+    <row r="17" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="C17" s="120">
+        <v>42650</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="J17" s="151" t="s">
+        <v>336</v>
+      </c>
+      <c r="K17" s="120">
+        <v>42650</v>
+      </c>
+      <c r="L17" s="121">
+        <v>40</v>
+      </c>
+      <c r="M17" s="121">
+        <v>10</v>
+      </c>
+      <c r="N17" s="121">
+        <v>0</v>
+      </c>
+      <c r="O17" s="121"/>
+    </row>
+    <row r="18" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="C18" s="120">
+        <v>42653</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>344</v>
+      </c>
+      <c r="H18" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" s="121" t="s">
+        <v>345</v>
+      </c>
+      <c r="J18" s="151" t="s">
+        <v>346</v>
+      </c>
+      <c r="K18" s="120">
+        <v>42653</v>
+      </c>
+      <c r="L18" s="121">
+        <v>42</v>
+      </c>
+      <c r="M18" s="121">
+        <v>10</v>
+      </c>
+      <c r="N18" s="121">
+        <v>0</v>
+      </c>
+      <c r="O18" s="121"/>
+    </row>
+    <row r="19" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="J19" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="L19" s="107" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J20" s="105" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J21" s="105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J22" s="105" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J23" s="116" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="108" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="124" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="124" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B27" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="121" t="s">
+        <v>312</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>313</v>
+      </c>
+      <c r="G27" s="121" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" s="120">
+        <v>42678</v>
+      </c>
+      <c r="I27" s="128">
+        <v>45</v>
+      </c>
+      <c r="J27" s="121" t="s">
+        <v>315</v>
+      </c>
+      <c r="K27" s="121"/>
+      <c r="L27" s="129"/>
+    </row>
+    <row r="28" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B28" s="119"/>
+      <c r="C28" s="121" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="121" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="H28" s="120">
+        <v>42678</v>
+      </c>
+      <c r="I28" s="128">
+        <v>45</v>
+      </c>
+      <c r="J28" s="121" t="s">
+        <v>321</v>
+      </c>
+      <c r="K28" s="121"/>
+      <c r="L28" s="129"/>
+    </row>
+    <row r="29" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B29" s="119"/>
+      <c r="C29" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="120">
+        <v>42678</v>
+      </c>
+      <c r="I29" s="128">
+        <v>45</v>
+      </c>
+      <c r="J29" s="121" t="s">
+        <v>321</v>
+      </c>
+      <c r="K29" s="121"/>
+      <c r="L29" s="129"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J30" s="107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J31" s="105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J32" s="105" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="J33" s="105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="J34" s="118"/>
+    </row>
+    <row r="36" spans="2:23" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B36" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="131" t="s">
+        <v>350</v>
+      </c>
+      <c r="F36" s="130" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" s="130" t="s">
+        <v>352</v>
+      </c>
+      <c r="H36" s="130" t="s">
+        <v>353</v>
+      </c>
+      <c r="I36" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="132" t="s">
+        <v>354</v>
+      </c>
+      <c r="K36" s="132" t="s">
+        <v>355</v>
+      </c>
+      <c r="L36" s="130" t="s">
+        <v>356</v>
+      </c>
+      <c r="M36" s="130" t="s">
+        <v>357</v>
+      </c>
+      <c r="N36" s="132" t="s">
+        <v>358</v>
+      </c>
+      <c r="O36" s="130" t="s">
+        <v>359</v>
+      </c>
+      <c r="P36" s="131" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q36" s="131" t="s">
+        <v>361</v>
+      </c>
+      <c r="R36" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="S36" s="99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="C37" s="133" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="133" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="134" t="s">
+        <v>364</v>
+      </c>
+      <c r="F37" s="133" t="s">
+        <v>365</v>
+      </c>
+      <c r="G37" s="134" t="s">
+        <v>366</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>367</v>
+      </c>
+      <c r="I37" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="J37" s="152" t="s">
+        <v>369</v>
+      </c>
+      <c r="K37" s="136" t="s">
+        <v>370</v>
+      </c>
+      <c r="L37" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="M37" s="137" t="s">
+        <v>371</v>
+      </c>
+      <c r="N37" s="134" t="s">
+        <v>372</v>
+      </c>
+      <c r="O37" s="134" t="s">
+        <v>370</v>
+      </c>
+      <c r="P37" s="138">
+        <v>42549</v>
+      </c>
+      <c r="Q37" s="138">
+        <v>42576</v>
+      </c>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+    </row>
+    <row r="38" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="C38" s="133" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="133" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="134" t="s">
+        <v>364</v>
+      </c>
+      <c r="F38" s="133" t="s">
+        <v>375</v>
+      </c>
+      <c r="G38" s="134" t="s">
+        <v>366</v>
+      </c>
+      <c r="H38" s="134" t="s">
+        <v>367</v>
+      </c>
+      <c r="I38" s="135" t="s">
+        <v>376</v>
+      </c>
+      <c r="J38" s="152" t="s">
+        <v>377</v>
+      </c>
+      <c r="K38" s="136" t="s">
+        <v>370</v>
+      </c>
+      <c r="L38" s="133" t="s">
+        <v>378</v>
+      </c>
+      <c r="M38" s="137" t="s">
+        <v>379</v>
+      </c>
+      <c r="N38" s="134" t="s">
+        <v>380</v>
+      </c>
+      <c r="O38" s="134" t="s">
+        <v>381</v>
+      </c>
+      <c r="P38" s="138">
+        <v>42549</v>
+      </c>
+      <c r="Q38" s="138">
+        <v>42576</v>
+      </c>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C39" s="133" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="133" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="134" t="s">
+        <v>364</v>
+      </c>
+      <c r="F39" s="133" t="s">
+        <v>384</v>
+      </c>
+      <c r="G39" s="134" t="s">
+        <v>385</v>
+      </c>
+      <c r="H39" s="134" t="s">
+        <v>367</v>
+      </c>
+      <c r="I39" s="135" t="s">
+        <v>386</v>
+      </c>
+      <c r="J39" s="152" t="s">
+        <v>387</v>
+      </c>
+      <c r="K39" s="136" t="s">
+        <v>388</v>
+      </c>
+      <c r="L39" s="137" t="s">
+        <v>389</v>
+      </c>
+      <c r="M39" s="137" t="s">
+        <v>390</v>
+      </c>
+      <c r="N39" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="O39" s="134" t="s">
+        <v>370</v>
+      </c>
+      <c r="P39" s="138">
+        <v>42549</v>
+      </c>
+      <c r="Q39" s="138">
+        <v>42576</v>
+      </c>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+    </row>
+    <row r="40" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="R40" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="S40" s="107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="R41" s="117"/>
+      <c r="S41" s="105" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="R42" s="117"/>
+      <c r="S42" s="105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="R43" s="117"/>
+      <c r="S43" s="105" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="S44" s="116" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="108" t="s">
+        <v>393</v>
+      </c>
+      <c r="C46" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="H46" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" s="140" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="K46" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="N46" s="140"/>
+      <c r="O46" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="140" t="s">
+        <v>181</v>
+      </c>
+      <c r="R46" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="S46" s="140"/>
+      <c r="T46" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="U46" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="V46" s="146" t="s">
+        <v>280</v>
+      </c>
+      <c r="W46" s="146" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="L47" s="142" t="s">
+        <v>185</v>
+      </c>
+      <c r="M47" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="N47" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="O47" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="P47" s="142" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="S47" s="143" t="s">
+        <v>189</v>
+      </c>
+      <c r="T47" s="145"/>
+      <c r="U47" s="141"/>
+      <c r="V47" s="146"/>
+      <c r="W47" s="146"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C48" s="156" t="s">
+        <v>395</v>
+      </c>
+      <c r="D48" s="156" t="s">
+        <v>396</v>
+      </c>
+      <c r="E48" s="153"/>
+      <c r="F48" s="156" t="s">
+        <v>397</v>
+      </c>
+      <c r="G48" s="156" t="s">
+        <v>398</v>
+      </c>
+      <c r="H48" s="156" t="s">
+        <v>399</v>
+      </c>
+      <c r="I48" s="156" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" s="156" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="L48" s="156" t="s">
+        <v>402</v>
+      </c>
+      <c r="M48" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="N48" s="156" t="s">
+        <v>403</v>
+      </c>
+      <c r="O48" s="156">
+        <v>8</v>
+      </c>
+      <c r="P48" s="156">
+        <v>1600</v>
+      </c>
+      <c r="Q48" s="156">
+        <v>1000</v>
+      </c>
+      <c r="R48" s="153"/>
+      <c r="S48" s="153"/>
+      <c r="T48" s="153"/>
+      <c r="U48" s="153"/>
+      <c r="V48" s="103"/>
+      <c r="W48" s="103"/>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C49" s="156" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="156" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" s="153"/>
+      <c r="F49" s="156" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" s="156" t="s">
+        <v>398</v>
+      </c>
+      <c r="H49" s="156" t="s">
+        <v>406</v>
+      </c>
+      <c r="I49" s="156" t="s">
+        <v>407</v>
+      </c>
+      <c r="J49" s="156" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="153"/>
+      <c r="R49" s="153"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="153"/>
+      <c r="V49" s="103"/>
+      <c r="W49" s="103"/>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C50" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="155" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="155" t="s">
+        <v>410</v>
+      </c>
+      <c r="F50" s="156" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" s="156" t="s">
+        <v>412</v>
+      </c>
+      <c r="H50" s="156" t="s">
+        <v>413</v>
+      </c>
+      <c r="I50" s="156" t="s">
+        <v>414</v>
+      </c>
+      <c r="J50" s="156" t="s">
+        <v>415</v>
+      </c>
+      <c r="K50" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="L50" s="156" t="s">
+        <v>416</v>
+      </c>
+      <c r="M50" s="156" t="s">
+        <v>417</v>
+      </c>
+      <c r="N50" s="156" t="s">
+        <v>418</v>
+      </c>
+      <c r="O50" s="156">
+        <v>8</v>
+      </c>
+      <c r="P50" s="156">
+        <v>1600</v>
+      </c>
+      <c r="Q50" s="156">
+        <v>500</v>
+      </c>
+      <c r="R50" s="156"/>
+      <c r="S50" s="156"/>
+      <c r="T50" s="156"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+    </row>
+    <row r="51" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="V51" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="W51" s="107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="V52" s="117"/>
+      <c r="W52" s="105" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="V53" s="117"/>
+      <c r="W53" s="105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="V54" s="117"/>
+      <c r="W54" s="105" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="W55" s="116" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B57" s="150" t="s">
+        <v>419</v>
+      </c>
+      <c r="C57" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" s="149" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="I57" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="J57" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="K57" s="130" t="s">
+        <v>212</v>
+      </c>
+      <c r="L57" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="N57" s="99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B58" s="150"/>
+      <c r="C58" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" s="147">
+        <v>6200</v>
+      </c>
+      <c r="E58" s="147" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="147" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" s="148" t="s">
+        <v>422</v>
+      </c>
+      <c r="H58" s="147" t="s">
+        <v>423</v>
+      </c>
+      <c r="I58" s="147" t="s">
+        <v>424</v>
+      </c>
+      <c r="J58" s="147" t="s">
+        <v>225</v>
+      </c>
+      <c r="K58" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="L58" s="147"/>
+      <c r="M58" s="103"/>
+      <c r="N58" s="103"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C59" s="147" t="s">
+        <v>425</v>
+      </c>
+      <c r="D59" s="147">
+        <v>585</v>
+      </c>
+      <c r="E59" s="147" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" s="147" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" s="148" t="s">
+        <v>427</v>
+      </c>
+      <c r="H59" s="147" t="s">
+        <v>428</v>
+      </c>
+      <c r="I59" s="147" t="s">
+        <v>424</v>
+      </c>
+      <c r="J59" s="147" t="s">
+        <v>225</v>
+      </c>
+      <c r="K59" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="L59" s="147"/>
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C60" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="147">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="147" t="s">
+        <v>429</v>
+      </c>
+      <c r="F60" s="147" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" s="148" t="s">
+        <v>431</v>
+      </c>
+      <c r="H60" s="147" t="s">
+        <v>432</v>
+      </c>
+      <c r="I60" s="147" t="s">
+        <v>433</v>
+      </c>
+      <c r="J60" s="147" t="s">
+        <v>434</v>
+      </c>
+      <c r="K60" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="L60" s="147"/>
+      <c r="M60" s="103"/>
+      <c r="N60" s="103"/>
+    </row>
+    <row r="61" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="M61" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="N61" s="107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="M62" s="117"/>
+      <c r="N62" s="105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="M63" s="117"/>
+      <c r="N63" s="105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="N64" s="116" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B67" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" s="157" t="s">
+        <v>350</v>
+      </c>
+      <c r="D67" s="163" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="163" t="s">
+        <v>435</v>
+      </c>
+      <c r="F67" s="163" t="s">
+        <v>436</v>
+      </c>
+      <c r="G67" s="163" t="s">
+        <v>437</v>
+      </c>
+      <c r="H67" s="163" t="s">
+        <v>438</v>
+      </c>
+      <c r="I67" s="163" t="s">
+        <v>439</v>
+      </c>
+      <c r="J67" s="163" t="s">
+        <v>440</v>
+      </c>
+      <c r="K67" s="163" t="s">
+        <v>441</v>
+      </c>
+      <c r="L67" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="M67" s="157" t="s">
+        <v>442</v>
+      </c>
+      <c r="N67" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="O67" s="99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C68" s="158" t="s">
+        <v>444</v>
+      </c>
+      <c r="D68" s="159" t="s">
+        <v>445</v>
+      </c>
+      <c r="E68" s="159" t="s">
+        <v>446</v>
+      </c>
+      <c r="F68" s="159"/>
+      <c r="G68" s="159"/>
+      <c r="H68" s="159"/>
+      <c r="I68" s="159" t="s">
+        <v>245</v>
+      </c>
+      <c r="J68" s="159" t="s">
+        <v>447</v>
+      </c>
+      <c r="K68" s="159" t="s">
+        <v>448</v>
+      </c>
+      <c r="L68" s="159" t="s">
+        <v>449</v>
+      </c>
+      <c r="M68" s="159"/>
+      <c r="N68" s="103"/>
+      <c r="O68" s="103"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C69" s="160"/>
+      <c r="D69" s="159" t="s">
+        <v>450</v>
+      </c>
+      <c r="E69" s="159" t="s">
+        <v>451</v>
+      </c>
+      <c r="F69" s="159" t="s">
+        <v>452</v>
+      </c>
+      <c r="G69" s="159" t="s">
+        <v>453</v>
+      </c>
+      <c r="H69" s="161" t="s">
+        <v>452</v>
+      </c>
+      <c r="I69" s="159" t="s">
+        <v>245</v>
+      </c>
+      <c r="J69" s="159" t="s">
+        <v>454</v>
+      </c>
+      <c r="K69" s="159" t="s">
+        <v>455</v>
+      </c>
+      <c r="L69" s="159"/>
+      <c r="M69" s="159" t="s">
+        <v>459</v>
+      </c>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C70" s="162"/>
+      <c r="D70" s="159" t="s">
+        <v>456</v>
+      </c>
+      <c r="E70" s="159" t="s">
+        <v>457</v>
+      </c>
+      <c r="F70" s="159" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" s="159" t="s">
+        <v>245</v>
+      </c>
+      <c r="H70" s="159"/>
+      <c r="I70" s="159" t="s">
+        <v>245</v>
+      </c>
+      <c r="J70" s="159" t="s">
+        <v>239</v>
+      </c>
+      <c r="K70" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="L70" s="159" t="s">
+        <v>458</v>
+      </c>
+      <c r="M70" s="159"/>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
+    </row>
+    <row r="71" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="N71" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="O71" s="107" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N72" s="117"/>
+      <c r="O72" s="105" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N73" s="117"/>
+      <c r="O73" s="105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O74" s="116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O75" s="116" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B77" s="168" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="169" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" s="169" t="s">
+        <v>252</v>
+      </c>
+      <c r="F77" s="169" t="s">
+        <v>253</v>
+      </c>
+      <c r="G77" s="169" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77" s="169" t="s">
+        <v>255</v>
+      </c>
+      <c r="I77" s="169" t="s">
+        <v>256</v>
+      </c>
+      <c r="J77" s="169" t="s">
+        <v>257</v>
+      </c>
+      <c r="K77" s="169" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="M77" s="169" t="s">
+        <v>79</v>
+      </c>
+      <c r="N77" s="170" t="s">
+        <v>280</v>
+      </c>
+      <c r="O77" s="171" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B78" s="172"/>
+      <c r="C78" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="147"/>
+      <c r="E78" s="147" t="s">
+        <v>261</v>
+      </c>
+      <c r="F78" s="147"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="147">
+        <v>29307550</v>
+      </c>
+      <c r="I78" s="147" t="s">
+        <v>262</v>
+      </c>
+      <c r="J78" s="147" t="s">
+        <v>263</v>
+      </c>
+      <c r="K78" s="147" t="s">
+        <v>264</v>
+      </c>
+      <c r="L78" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="M78" s="165" t="s">
+        <v>266</v>
+      </c>
+      <c r="N78" s="103"/>
+      <c r="O78" s="173"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B79" s="172"/>
+      <c r="C79" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="147" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="147" t="s">
+        <v>269</v>
+      </c>
+      <c r="G79" s="147" t="s">
+        <v>270</v>
+      </c>
+      <c r="H79" s="147">
+        <v>27610265</v>
+      </c>
+      <c r="I79" s="147" t="s">
+        <v>271</v>
+      </c>
+      <c r="J79" s="147" t="s">
+        <v>272</v>
+      </c>
+      <c r="K79" s="147" t="s">
+        <v>273</v>
+      </c>
+      <c r="L79" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="M79" s="165"/>
+      <c r="N79" s="103"/>
+      <c r="O79" s="173"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B80" s="172"/>
+      <c r="C80" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="147"/>
+      <c r="E80" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" s="147" t="s">
+        <v>269</v>
+      </c>
+      <c r="G80" s="147" t="s">
+        <v>270</v>
+      </c>
+      <c r="H80" s="147">
+        <v>83379950</v>
+      </c>
+      <c r="I80" s="147" t="s">
+        <v>464</v>
+      </c>
+      <c r="J80" s="147" t="s">
+        <v>272</v>
+      </c>
+      <c r="K80" s="147" t="s">
+        <v>465</v>
+      </c>
+      <c r="L80" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="M80" s="165"/>
+      <c r="N80" s="103"/>
+      <c r="O80" s="173"/>
+    </row>
+    <row r="81" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="B81" s="172"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
+      <c r="E81" s="166"/>
+      <c r="F81" s="166"/>
+      <c r="G81" s="166"/>
+      <c r="H81" s="166"/>
+      <c r="I81" s="166"/>
+      <c r="J81" s="166"/>
+      <c r="K81" s="166"/>
+      <c r="L81" s="166"/>
+      <c r="M81" s="166"/>
+      <c r="N81" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="O81" s="174" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B82" s="172"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="166"/>
+      <c r="G82" s="166"/>
+      <c r="H82" s="166"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="166"/>
+      <c r="M82" s="166"/>
+      <c r="N82" s="167"/>
+      <c r="O82" s="175" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B83" s="172"/>
+      <c r="C83" s="166"/>
+      <c r="D83" s="166"/>
+      <c r="E83" s="166"/>
+      <c r="F83" s="166"/>
+      <c r="G83" s="166"/>
+      <c r="H83" s="166"/>
+      <c r="I83" s="166"/>
+      <c r="J83" s="166"/>
+      <c r="K83" s="166"/>
+      <c r="L83" s="166"/>
+      <c r="M83" s="166"/>
+      <c r="N83" s="167"/>
+      <c r="O83" s="175" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B84" s="172"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="166"/>
+      <c r="E84" s="166"/>
+      <c r="F84" s="166"/>
+      <c r="G84" s="166"/>
+      <c r="H84" s="166"/>
+      <c r="I84" s="166"/>
+      <c r="J84" s="166"/>
+      <c r="K84" s="166"/>
+      <c r="L84" s="166"/>
+      <c r="M84" s="166"/>
+      <c r="N84" s="167"/>
+      <c r="O84" s="175" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B85" s="172"/>
+      <c r="C85" s="166"/>
+      <c r="D85" s="166"/>
+      <c r="E85" s="166"/>
+      <c r="F85" s="166"/>
+      <c r="G85" s="166"/>
+      <c r="H85" s="166"/>
+      <c r="I85" s="166"/>
+      <c r="J85" s="166"/>
+      <c r="K85" s="166"/>
+      <c r="L85" s="166"/>
+      <c r="M85" s="166"/>
+      <c r="N85" s="167"/>
+      <c r="O85" s="176" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
+      <c r="B86" s="172" t="s">
+        <v>462</v>
+      </c>
+      <c r="C86" s="164" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="164" t="s">
+        <v>463</v>
+      </c>
+      <c r="E86" s="164" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="164" t="s">
+        <v>257</v>
+      </c>
+      <c r="G86" s="164" t="s">
+        <v>258</v>
+      </c>
+      <c r="H86" s="164" t="s">
+        <v>259</v>
+      </c>
+      <c r="I86" s="164" t="s">
+        <v>79</v>
+      </c>
+      <c r="J86" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="K86" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="L86" s="166"/>
+      <c r="M86" s="166"/>
+      <c r="N86" s="166"/>
+      <c r="O86" s="177"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B87" s="172"/>
+      <c r="C87" s="139" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="139">
+        <v>1</v>
+      </c>
+      <c r="E87" s="139">
+        <v>83379011</v>
+      </c>
+      <c r="F87" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="G87" s="139" t="s">
+        <v>466</v>
+      </c>
+      <c r="H87" s="139" t="s">
+        <v>265</v>
+      </c>
+      <c r="I87" s="139" t="s">
+        <v>467</v>
+      </c>
+      <c r="J87" s="103"/>
+      <c r="K87" s="103"/>
+      <c r="L87" s="166"/>
+      <c r="M87" s="166"/>
+      <c r="N87" s="166"/>
+      <c r="O87" s="177"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B88" s="172"/>
+      <c r="C88" s="139" t="s">
+        <v>464</v>
+      </c>
+      <c r="D88" s="139">
+        <v>4</v>
+      </c>
+      <c r="E88" s="139">
+        <v>83379950</v>
+      </c>
+      <c r="F88" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="G88" s="139" t="s">
+        <v>465</v>
+      </c>
+      <c r="H88" s="139" t="s">
+        <v>265</v>
+      </c>
+      <c r="I88" s="139" t="s">
+        <v>467</v>
+      </c>
+      <c r="J88" s="103"/>
+      <c r="K88" s="103"/>
+      <c r="L88" s="166"/>
+      <c r="M88" s="166"/>
+      <c r="N88" s="166"/>
+      <c r="O88" s="177"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B89" s="172"/>
+      <c r="C89" s="139" t="s">
+        <v>468</v>
+      </c>
+      <c r="D89" s="139">
+        <v>1</v>
+      </c>
+      <c r="E89" s="139">
+        <v>83379909</v>
+      </c>
+      <c r="F89" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="G89" s="139" t="s">
+        <v>468</v>
+      </c>
+      <c r="H89" s="139" t="s">
+        <v>265</v>
+      </c>
+      <c r="I89" s="139" t="s">
+        <v>467</v>
+      </c>
+      <c r="J89" s="103"/>
+      <c r="K89" s="103"/>
+      <c r="L89" s="166"/>
+      <c r="M89" s="166"/>
+      <c r="N89" s="166"/>
+      <c r="O89" s="177"/>
+    </row>
+    <row r="90" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
+      <c r="B90" s="172"/>
+      <c r="C90" s="166"/>
+      <c r="D90" s="166"/>
+      <c r="E90" s="166"/>
+      <c r="F90" s="166"/>
+      <c r="G90" s="166"/>
+      <c r="H90" s="166"/>
+      <c r="I90" s="166"/>
+      <c r="J90" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="K90" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="L90" s="166"/>
+      <c r="M90" s="166"/>
+      <c r="N90" s="166"/>
+      <c r="O90" s="177"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B91" s="172"/>
+      <c r="C91" s="166"/>
+      <c r="D91" s="166"/>
+      <c r="E91" s="166"/>
+      <c r="F91" s="166"/>
+      <c r="G91" s="166"/>
+      <c r="H91" s="166"/>
+      <c r="I91" s="166"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="L91" s="166"/>
+      <c r="M91" s="166"/>
+      <c r="N91" s="166"/>
+      <c r="O91" s="177"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B92" s="172"/>
+      <c r="C92" s="166"/>
+      <c r="D92" s="166"/>
+      <c r="E92" s="166"/>
+      <c r="F92" s="166"/>
+      <c r="G92" s="166"/>
+      <c r="H92" s="166"/>
+      <c r="I92" s="166"/>
+      <c r="J92" s="167"/>
+      <c r="K92" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="L92" s="166"/>
+      <c r="M92" s="166"/>
+      <c r="N92" s="166"/>
+      <c r="O92" s="177"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B93" s="172"/>
+      <c r="C93" s="166"/>
+      <c r="D93" s="166"/>
+      <c r="E93" s="166"/>
+      <c r="F93" s="166"/>
+      <c r="G93" s="166"/>
+      <c r="H93" s="166"/>
+      <c r="I93" s="166"/>
+      <c r="J93" s="167"/>
+      <c r="K93" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="L93" s="166"/>
+      <c r="M93" s="166"/>
+      <c r="N93" s="166"/>
+      <c r="O93" s="177"/>
+    </row>
+    <row r="94" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="178"/>
+      <c r="C94" s="179"/>
+      <c r="D94" s="179"/>
+      <c r="E94" s="179"/>
+      <c r="F94" s="179"/>
+      <c r="G94" s="179"/>
+      <c r="H94" s="179"/>
+      <c r="I94" s="179"/>
+      <c r="J94" s="180"/>
+      <c r="K94" s="181" t="s">
+        <v>301</v>
+      </c>
+      <c r="L94" s="179"/>
+      <c r="M94" s="179"/>
+      <c r="N94" s="179"/>
+      <c r="O94" s="182"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="J46:J47"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G16" r:id="rId1"/>
+    <hyperlink ref="G17" r:id="rId2"/>
+    <hyperlink ref="G18" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/桌面组/桌面组各类表需求整理_第二版.xlsx
+++ b/桌面组/桌面组各类表需求整理_第二版.xlsx
@@ -3580,18 +3580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="37" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3650,9 +3638,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3719,21 +3704,6 @@
     <xf numFmtId="178" fontId="70" fillId="7" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="7" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="70" fillId="7" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="32" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="70" fillId="32" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3742,9 +3712,6 @@
     </xf>
     <xf numFmtId="49" fontId="52" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3765,19 +3732,10 @@
     <xf numFmtId="0" fontId="52" fillId="32" borderId="1" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="21" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3831,6 +3789,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="37" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="21" xfId="151" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="7" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="70" fillId="32" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="70" fillId="7" borderId="1" xfId="84" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="32" borderId="1" xfId="84" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5421,69 +5421,69 @@
       <c r="A21" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="177" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="177" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="93" t="s">
+      <c r="G21" s="177" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="177" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="93" t="s">
+      <c r="I21" s="177" t="s">
         <v>176</v>
       </c>
-      <c r="J21" s="93" t="s">
+      <c r="J21" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="K21" s="94" t="s">
+      <c r="K21" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94" t="s">
+      <c r="L21" s="174"/>
+      <c r="M21" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94" t="s">
+      <c r="N21" s="174"/>
+      <c r="O21" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94" t="s">
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="R21" s="94" t="s">
+      <c r="R21" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="S21" s="94"/>
-      <c r="T21" s="95" t="s">
+      <c r="S21" s="174"/>
+      <c r="T21" s="175" t="s">
         <v>183</v>
       </c>
-      <c r="U21" s="96" t="s">
+      <c r="U21" s="176" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="94"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
       <c r="K22" s="62" t="s">
         <v>184</v>
       </c>
@@ -5502,15 +5502,15 @@
       <c r="P22" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="Q22" s="94"/>
+      <c r="Q22" s="174"/>
       <c r="R22" s="62" t="s">
         <v>184</v>
       </c>
       <c r="S22" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="T22" s="95"/>
-      <c r="U22" s="96"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="176"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="60">
@@ -5952,6 +5952,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:T22"/>
@@ -5962,12 +5968,6 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -5982,1834 +5982,1838 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.88671875" style="100" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="108" customWidth="1"/>
-    <col min="3" max="18" width="12.77734375" style="100" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="100" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="100"/>
+    <col min="1" max="1" width="1.88671875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="104" customWidth="1"/>
+    <col min="3" max="18" width="12.77734375" style="96" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" style="96" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="169" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="170" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186" t="s">
+      <c r="D2" s="171"/>
+      <c r="E2" s="172" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="187" t="s">
+      <c r="F2" s="171"/>
+      <c r="G2" s="173" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="M4" s="95" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B5" s="100"/>
-      <c r="C5" s="101">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97">
         <v>518000039</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="98">
         <v>2.3090319510723901E+17</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="97">
         <v>13925206957</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
     </row>
     <row r="6" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97">
         <v>518000040</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="98">
         <v>2.3090319510723901E+17</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="97">
         <v>13925206957</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="97" t="s">
         <v>287</v>
       </c>
-      <c r="J6" s="101" t="s">
+      <c r="J6" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B7" s="100"/>
-      <c r="C7" s="101">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97">
         <v>518000041</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="98">
         <v>2.3090319510723901E+17</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="97">
         <v>13925206957</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="B8" s="100"/>
-      <c r="L8" s="115" t="s">
+      <c r="B8" s="96"/>
+      <c r="L8" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="103" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L9" s="117"/>
-      <c r="M9" s="105" t="s">
+      <c r="L9" s="113"/>
+      <c r="M9" s="101" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L10" s="117"/>
-      <c r="M10" s="105" t="s">
+      <c r="L10" s="113"/>
+      <c r="M10" s="101" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="L11" s="117"/>
-      <c r="M11" s="105" t="s">
+      <c r="L11" s="113"/>
+      <c r="M11" s="101" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="M12" s="116" t="s">
+      <c r="M12" s="112" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="105" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="106" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="113" t="s">
+      <c r="G15" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="114" t="s">
+      <c r="K15" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="L15" s="111" t="s">
+      <c r="L15" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="112" t="s">
+      <c r="M15" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="112" t="s">
+      <c r="N15" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="111" t="s">
+      <c r="O15" s="107" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="C16" s="120">
+      <c r="C16" s="115">
         <v>42650</v>
       </c>
-      <c r="D16" s="121" t="s">
+      <c r="D16" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="116" t="s">
         <v>332</v>
       </c>
-      <c r="G16" s="122" t="s">
+      <c r="G16" s="117" t="s">
         <v>333</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="118" t="s">
         <v>334</v>
       </c>
-      <c r="I16" s="121" t="s">
+      <c r="I16" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="J16" s="151" t="s">
+      <c r="J16" s="140" t="s">
         <v>336</v>
       </c>
-      <c r="K16" s="120">
+      <c r="K16" s="115">
         <v>42650</v>
       </c>
-      <c r="L16" s="121">
+      <c r="L16" s="116">
         <v>40</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="116">
         <v>10</v>
       </c>
-      <c r="N16" s="121">
+      <c r="N16" s="116">
         <v>0</v>
       </c>
-      <c r="O16" s="121"/>
+      <c r="O16" s="116"/>
     </row>
     <row r="17" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="C17" s="120">
+      <c r="C17" s="115">
         <v>42650</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="117" t="s">
         <v>340</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="118" t="s">
         <v>334</v>
       </c>
-      <c r="I17" s="121" t="s">
+      <c r="I17" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="151" t="s">
+      <c r="J17" s="140" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="120">
+      <c r="K17" s="115">
         <v>42650</v>
       </c>
-      <c r="L17" s="121">
+      <c r="L17" s="116">
         <v>40</v>
       </c>
-      <c r="M17" s="121">
+      <c r="M17" s="116">
         <v>10</v>
       </c>
-      <c r="N17" s="121">
+      <c r="N17" s="116">
         <v>0</v>
       </c>
-      <c r="O17" s="121"/>
+      <c r="O17" s="116"/>
     </row>
     <row r="18" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="C18" s="120">
+      <c r="C18" s="115">
         <v>42653</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="116" t="s">
         <v>343</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="117" t="s">
         <v>344</v>
       </c>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="118" t="s">
         <v>334</v>
       </c>
-      <c r="I18" s="121" t="s">
+      <c r="I18" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="J18" s="151" t="s">
+      <c r="J18" s="140" t="s">
         <v>346</v>
       </c>
-      <c r="K18" s="120">
+      <c r="K18" s="115">
         <v>42653</v>
       </c>
-      <c r="L18" s="121">
+      <c r="L18" s="116">
         <v>42</v>
       </c>
-      <c r="M18" s="121">
+      <c r="M18" s="116">
         <v>10</v>
       </c>
-      <c r="N18" s="121">
+      <c r="N18" s="116">
         <v>0</v>
       </c>
-      <c r="O18" s="121"/>
+      <c r="O18" s="116"/>
     </row>
     <row r="19" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="K19" s="106" t="s">
+      <c r="K19" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="L19" s="107" t="s">
+      <c r="L19" s="103" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J20" s="105" t="s">
+      <c r="J20" s="101" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J21" s="105" t="s">
+      <c r="J21" s="101" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J22" s="105" t="s">
+      <c r="J22" s="101" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J23" s="116" t="s">
+      <c r="J23" s="112" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="104" t="s">
         <v>307</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C26" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="119" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="124" t="s">
+      <c r="F26" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="G26" s="124" t="s">
+      <c r="G26" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="125" t="s">
+      <c r="H26" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="126" t="s">
+      <c r="I26" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="124" t="s">
+      <c r="J26" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="K26" s="127" t="s">
+      <c r="K26" s="122" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="183" t="s">
         <v>329</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="116" t="s">
         <v>311</v>
       </c>
-      <c r="E27" s="121" t="s">
+      <c r="E27" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="116" t="s">
         <v>313</v>
       </c>
-      <c r="G27" s="121" t="s">
+      <c r="G27" s="116" t="s">
         <v>314</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="115">
         <v>42678</v>
       </c>
-      <c r="I27" s="128">
+      <c r="I27" s="123">
         <v>45</v>
       </c>
-      <c r="J27" s="121" t="s">
+      <c r="J27" s="116" t="s">
         <v>315</v>
       </c>
-      <c r="K27" s="121"/>
-      <c r="L27" s="129"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="124"/>
     </row>
     <row r="28" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B28" s="119"/>
-      <c r="C28" s="121" t="s">
+      <c r="B28" s="183"/>
+      <c r="C28" s="116" t="s">
         <v>316</v>
       </c>
-      <c r="D28" s="121" t="s">
+      <c r="D28" s="116" t="s">
         <v>317</v>
       </c>
-      <c r="E28" s="121" t="s">
+      <c r="E28" s="116" t="s">
         <v>318</v>
       </c>
-      <c r="F28" s="121" t="s">
+      <c r="F28" s="116" t="s">
         <v>319</v>
       </c>
-      <c r="G28" s="121" t="s">
+      <c r="G28" s="116" t="s">
         <v>320</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="115">
         <v>42678</v>
       </c>
-      <c r="I28" s="128">
+      <c r="I28" s="123">
         <v>45</v>
       </c>
-      <c r="J28" s="121" t="s">
+      <c r="J28" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="K28" s="121"/>
-      <c r="L28" s="129"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="124"/>
     </row>
     <row r="29" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B29" s="119"/>
-      <c r="C29" s="121" t="s">
+      <c r="B29" s="183"/>
+      <c r="C29" s="116" t="s">
         <v>322</v>
       </c>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="116" t="s">
         <v>323</v>
       </c>
-      <c r="E29" s="121" t="s">
+      <c r="E29" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="F29" s="121" t="s">
+      <c r="F29" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="G29" s="121" t="s">
+      <c r="G29" s="116" t="s">
         <v>320</v>
       </c>
-      <c r="H29" s="120">
+      <c r="H29" s="115">
         <v>42678</v>
       </c>
-      <c r="I29" s="128">
+      <c r="I29" s="123">
         <v>45</v>
       </c>
-      <c r="J29" s="121" t="s">
+      <c r="J29" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="K29" s="121"/>
-      <c r="L29" s="129"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="124"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J30" s="107" t="s">
+      <c r="J30" s="103" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J31" s="105" t="s">
+      <c r="J31" s="101" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="J32" s="105" t="s">
+      <c r="J32" s="101" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="J33" s="105" t="s">
+      <c r="J33" s="101" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="J34" s="118"/>
+      <c r="J34" s="114"/>
     </row>
     <row r="36" spans="2:23" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="104" t="s">
         <v>349</v>
       </c>
-      <c r="C36" s="130" t="s">
+      <c r="C36" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="130" t="s">
+      <c r="D36" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="131" t="s">
+      <c r="E36" s="126" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="130" t="s">
+      <c r="F36" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="G36" s="130" t="s">
+      <c r="G36" s="125" t="s">
         <v>352</v>
       </c>
-      <c r="H36" s="130" t="s">
+      <c r="H36" s="125" t="s">
         <v>353</v>
       </c>
-      <c r="I36" s="130" t="s">
+      <c r="I36" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="J36" s="132" t="s">
+      <c r="J36" s="127" t="s">
         <v>354</v>
       </c>
-      <c r="K36" s="132" t="s">
+      <c r="K36" s="127" t="s">
         <v>355</v>
       </c>
-      <c r="L36" s="130" t="s">
+      <c r="L36" s="125" t="s">
         <v>356</v>
       </c>
-      <c r="M36" s="130" t="s">
+      <c r="M36" s="125" t="s">
         <v>357</v>
       </c>
-      <c r="N36" s="132" t="s">
+      <c r="N36" s="127" t="s">
         <v>358</v>
       </c>
-      <c r="O36" s="130" t="s">
+      <c r="O36" s="125" t="s">
         <v>359</v>
       </c>
-      <c r="P36" s="131" t="s">
+      <c r="P36" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="Q36" s="131" t="s">
+      <c r="Q36" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="R36" s="99" t="s">
+      <c r="R36" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="S36" s="99" t="s">
+      <c r="S36" s="95" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="37" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="D37" s="133" t="s">
+      <c r="D37" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="E37" s="134" t="s">
+      <c r="E37" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="F37" s="133" t="s">
+      <c r="F37" s="128" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="134" t="s">
+      <c r="G37" s="129" t="s">
         <v>366</v>
       </c>
-      <c r="H37" s="134" t="s">
+      <c r="H37" s="129" t="s">
         <v>367</v>
       </c>
-      <c r="I37" s="135" t="s">
+      <c r="I37" s="130" t="s">
         <v>368</v>
       </c>
-      <c r="J37" s="152" t="s">
+      <c r="J37" s="141" t="s">
         <v>369</v>
       </c>
-      <c r="K37" s="136" t="s">
+      <c r="K37" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="L37" s="137" t="s">
+      <c r="L37" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="M37" s="137" t="s">
+      <c r="M37" s="132" t="s">
         <v>371</v>
       </c>
-      <c r="N37" s="134" t="s">
+      <c r="N37" s="129" t="s">
         <v>372</v>
       </c>
-      <c r="O37" s="134" t="s">
+      <c r="O37" s="129" t="s">
         <v>370</v>
       </c>
-      <c r="P37" s="138">
+      <c r="P37" s="133">
         <v>42549</v>
       </c>
-      <c r="Q37" s="138">
+      <c r="Q37" s="133">
         <v>42576</v>
       </c>
-      <c r="R37" s="103"/>
-      <c r="S37" s="103"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
     </row>
     <row r="38" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="C38" s="133" t="s">
+      <c r="C38" s="128" t="s">
         <v>373</v>
       </c>
-      <c r="D38" s="133" t="s">
+      <c r="D38" s="128" t="s">
         <v>374</v>
       </c>
-      <c r="E38" s="134" t="s">
+      <c r="E38" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="F38" s="133" t="s">
+      <c r="F38" s="128" t="s">
         <v>375</v>
       </c>
-      <c r="G38" s="134" t="s">
+      <c r="G38" s="129" t="s">
         <v>366</v>
       </c>
-      <c r="H38" s="134" t="s">
+      <c r="H38" s="129" t="s">
         <v>367</v>
       </c>
-      <c r="I38" s="135" t="s">
+      <c r="I38" s="130" t="s">
         <v>376</v>
       </c>
-      <c r="J38" s="152" t="s">
+      <c r="J38" s="141" t="s">
         <v>377</v>
       </c>
-      <c r="K38" s="136" t="s">
+      <c r="K38" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="L38" s="133" t="s">
+      <c r="L38" s="128" t="s">
         <v>378</v>
       </c>
-      <c r="M38" s="137" t="s">
+      <c r="M38" s="132" t="s">
         <v>379</v>
       </c>
-      <c r="N38" s="134" t="s">
+      <c r="N38" s="129" t="s">
         <v>380</v>
       </c>
-      <c r="O38" s="134" t="s">
+      <c r="O38" s="129" t="s">
         <v>381</v>
       </c>
-      <c r="P38" s="138">
+      <c r="P38" s="133">
         <v>42549</v>
       </c>
-      <c r="Q38" s="138">
+      <c r="Q38" s="133">
         <v>42576</v>
       </c>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
+      <c r="R38" s="99"/>
+      <c r="S38" s="99"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C39" s="133" t="s">
+      <c r="C39" s="128" t="s">
         <v>382</v>
       </c>
-      <c r="D39" s="133" t="s">
+      <c r="D39" s="128" t="s">
         <v>383</v>
       </c>
-      <c r="E39" s="134" t="s">
+      <c r="E39" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="F39" s="133" t="s">
+      <c r="F39" s="128" t="s">
         <v>384</v>
       </c>
-      <c r="G39" s="134" t="s">
+      <c r="G39" s="129" t="s">
         <v>385</v>
       </c>
-      <c r="H39" s="134" t="s">
+      <c r="H39" s="129" t="s">
         <v>367</v>
       </c>
-      <c r="I39" s="135" t="s">
+      <c r="I39" s="130" t="s">
         <v>386</v>
       </c>
-      <c r="J39" s="152" t="s">
+      <c r="J39" s="141" t="s">
         <v>387</v>
       </c>
-      <c r="K39" s="136" t="s">
+      <c r="K39" s="131" t="s">
         <v>388</v>
       </c>
-      <c r="L39" s="137" t="s">
+      <c r="L39" s="132" t="s">
         <v>389</v>
       </c>
-      <c r="M39" s="137" t="s">
+      <c r="M39" s="132" t="s">
         <v>390</v>
       </c>
-      <c r="N39" s="139" t="s">
+      <c r="N39" s="134" t="s">
         <v>372</v>
       </c>
-      <c r="O39" s="134" t="s">
+      <c r="O39" s="129" t="s">
         <v>370</v>
       </c>
-      <c r="P39" s="138">
+      <c r="P39" s="133">
         <v>42549</v>
       </c>
-      <c r="Q39" s="138">
+      <c r="Q39" s="133">
         <v>42576</v>
       </c>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
+      <c r="R39" s="99"/>
+      <c r="S39" s="99"/>
     </row>
     <row r="40" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="R40" s="115" t="s">
+      <c r="R40" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="S40" s="107" t="s">
+      <c r="S40" s="103" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="R41" s="117"/>
-      <c r="S41" s="105" t="s">
+      <c r="R41" s="113"/>
+      <c r="S41" s="101" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="R42" s="117"/>
-      <c r="S42" s="105" t="s">
+      <c r="R42" s="113"/>
+      <c r="S42" s="101" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="R43" s="117"/>
-      <c r="S43" s="105" t="s">
+      <c r="R43" s="113"/>
+      <c r="S43" s="101" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="S44" s="116" t="s">
+      <c r="S44" s="112" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="46" spans="2:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="104" t="s">
         <v>393</v>
       </c>
-      <c r="C46" s="140" t="s">
+      <c r="C46" s="184" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="140" t="s">
+      <c r="D46" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="140" t="s">
+      <c r="E46" s="184" t="s">
         <v>172</v>
       </c>
-      <c r="F46" s="140" t="s">
+      <c r="F46" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="144" t="s">
+      <c r="G46" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="140" t="s">
+      <c r="H46" s="184" t="s">
         <v>175</v>
       </c>
-      <c r="I46" s="140" t="s">
+      <c r="I46" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="J46" s="140" t="s">
+      <c r="J46" s="184" t="s">
         <v>177</v>
       </c>
-      <c r="K46" s="140" t="s">
+      <c r="K46" s="184" t="s">
         <v>178</v>
       </c>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140" t="s">
+      <c r="L46" s="184"/>
+      <c r="M46" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="N46" s="140"/>
-      <c r="O46" s="140" t="s">
+      <c r="N46" s="184"/>
+      <c r="O46" s="184" t="s">
         <v>180</v>
       </c>
-      <c r="P46" s="140"/>
-      <c r="Q46" s="140" t="s">
+      <c r="P46" s="184"/>
+      <c r="Q46" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="R46" s="140" t="s">
+      <c r="R46" s="184" t="s">
         <v>182</v>
       </c>
-      <c r="S46" s="140"/>
-      <c r="T46" s="145" t="s">
+      <c r="S46" s="184"/>
+      <c r="T46" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="U46" s="141" t="s">
+      <c r="U46" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="V46" s="146" t="s">
+      <c r="V46" s="178" t="s">
         <v>280</v>
       </c>
-      <c r="W46" s="146" t="s">
+      <c r="W46" s="178" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="142" t="s">
+      <c r="C47" s="184"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="184"/>
+      <c r="J47" s="184"/>
+      <c r="K47" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="L47" s="142" t="s">
+      <c r="L47" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="M47" s="142" t="s">
+      <c r="M47" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="N47" s="142" t="s">
+      <c r="N47" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="O47" s="142" t="s">
+      <c r="O47" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="P47" s="142" t="s">
+      <c r="P47" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="Q47" s="140"/>
-      <c r="R47" s="142" t="s">
+      <c r="Q47" s="184"/>
+      <c r="R47" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="S47" s="143" t="s">
+      <c r="S47" s="136" t="s">
         <v>189</v>
       </c>
-      <c r="T47" s="145"/>
-      <c r="U47" s="141"/>
-      <c r="V47" s="146"/>
-      <c r="W47" s="146"/>
+      <c r="T47" s="185"/>
+      <c r="U47" s="186"/>
+      <c r="V47" s="178"/>
+      <c r="W47" s="178"/>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C48" s="156" t="s">
+      <c r="C48" s="145" t="s">
         <v>395</v>
       </c>
-      <c r="D48" s="156" t="s">
+      <c r="D48" s="145" t="s">
         <v>396</v>
       </c>
-      <c r="E48" s="153"/>
-      <c r="F48" s="156" t="s">
+      <c r="E48" s="142"/>
+      <c r="F48" s="145" t="s">
         <v>397</v>
       </c>
-      <c r="G48" s="156" t="s">
+      <c r="G48" s="145" t="s">
         <v>398</v>
       </c>
-      <c r="H48" s="156" t="s">
+      <c r="H48" s="145" t="s">
         <v>399</v>
       </c>
-      <c r="I48" s="156" t="s">
+      <c r="I48" s="145" t="s">
         <v>400</v>
       </c>
-      <c r="J48" s="156" t="s">
+      <c r="J48" s="145" t="s">
         <v>401</v>
       </c>
-      <c r="K48" s="156" t="s">
+      <c r="K48" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="L48" s="156" t="s">
+      <c r="L48" s="145" t="s">
         <v>402</v>
       </c>
-      <c r="M48" s="156" t="s">
+      <c r="M48" s="145" t="s">
         <v>197</v>
       </c>
-      <c r="N48" s="156" t="s">
+      <c r="N48" s="145" t="s">
         <v>403</v>
       </c>
-      <c r="O48" s="156">
+      <c r="O48" s="145">
         <v>8</v>
       </c>
-      <c r="P48" s="156">
+      <c r="P48" s="145">
         <v>1600</v>
       </c>
-      <c r="Q48" s="156">
+      <c r="Q48" s="145">
         <v>1000</v>
       </c>
-      <c r="R48" s="153"/>
-      <c r="S48" s="153"/>
-      <c r="T48" s="153"/>
-      <c r="U48" s="153"/>
-      <c r="V48" s="103"/>
-      <c r="W48" s="103"/>
+      <c r="R48" s="142"/>
+      <c r="S48" s="142"/>
+      <c r="T48" s="142"/>
+      <c r="U48" s="142"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C49" s="156" t="s">
+      <c r="C49" s="145" t="s">
         <v>395</v>
       </c>
-      <c r="D49" s="156" t="s">
+      <c r="D49" s="145" t="s">
         <v>404</v>
       </c>
-      <c r="E49" s="153"/>
-      <c r="F49" s="156" t="s">
+      <c r="E49" s="142"/>
+      <c r="F49" s="145" t="s">
         <v>405</v>
       </c>
-      <c r="G49" s="156" t="s">
+      <c r="G49" s="145" t="s">
         <v>398</v>
       </c>
-      <c r="H49" s="156" t="s">
+      <c r="H49" s="145" t="s">
         <v>406</v>
       </c>
-      <c r="I49" s="156" t="s">
+      <c r="I49" s="145" t="s">
         <v>407</v>
       </c>
-      <c r="J49" s="156" t="s">
+      <c r="J49" s="145" t="s">
         <v>408</v>
       </c>
-      <c r="K49" s="156" t="s">
+      <c r="K49" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="153"/>
-      <c r="R49" s="153"/>
-      <c r="S49" s="153"/>
-      <c r="T49" s="153"/>
-      <c r="U49" s="153"/>
-      <c r="V49" s="103"/>
-      <c r="W49" s="103"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="142"/>
+      <c r="N49" s="142"/>
+      <c r="O49" s="142"/>
+      <c r="P49" s="142"/>
+      <c r="Q49" s="142"/>
+      <c r="R49" s="142"/>
+      <c r="S49" s="142"/>
+      <c r="T49" s="142"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="99"/>
+      <c r="W49" s="99"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C50" s="156" t="s">
+      <c r="C50" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="155" t="s">
+      <c r="D50" s="144" t="s">
         <v>409</v>
       </c>
-      <c r="E50" s="155" t="s">
+      <c r="E50" s="144" t="s">
         <v>410</v>
       </c>
-      <c r="F50" s="156" t="s">
+      <c r="F50" s="145" t="s">
         <v>411</v>
       </c>
-      <c r="G50" s="156" t="s">
+      <c r="G50" s="145" t="s">
         <v>412</v>
       </c>
-      <c r="H50" s="156" t="s">
+      <c r="H50" s="145" t="s">
         <v>413</v>
       </c>
-      <c r="I50" s="156" t="s">
+      <c r="I50" s="145" t="s">
         <v>414</v>
       </c>
-      <c r="J50" s="156" t="s">
+      <c r="J50" s="145" t="s">
         <v>415</v>
       </c>
-      <c r="K50" s="156" t="s">
+      <c r="K50" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="L50" s="156" t="s">
+      <c r="L50" s="145" t="s">
         <v>416</v>
       </c>
-      <c r="M50" s="156" t="s">
+      <c r="M50" s="145" t="s">
         <v>417</v>
       </c>
-      <c r="N50" s="156" t="s">
+      <c r="N50" s="145" t="s">
         <v>418</v>
       </c>
-      <c r="O50" s="156">
+      <c r="O50" s="145">
         <v>8</v>
       </c>
-      <c r="P50" s="156">
+      <c r="P50" s="145">
         <v>1600</v>
       </c>
-      <c r="Q50" s="156">
+      <c r="Q50" s="145">
         <v>500</v>
       </c>
-      <c r="R50" s="156"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="156"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="103"/>
-      <c r="W50" s="103"/>
+      <c r="R50" s="145"/>
+      <c r="S50" s="145"/>
+      <c r="T50" s="145"/>
+      <c r="U50" s="143"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="99"/>
     </row>
     <row r="51" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="V51" s="115" t="s">
+      <c r="V51" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="W51" s="107" t="s">
+      <c r="W51" s="103" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="V52" s="117"/>
-      <c r="W52" s="105" t="s">
+      <c r="V52" s="113"/>
+      <c r="W52" s="101" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="V53" s="117"/>
-      <c r="W53" s="105" t="s">
+      <c r="V53" s="113"/>
+      <c r="W53" s="101" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="V54" s="117"/>
-      <c r="W54" s="105" t="s">
+      <c r="V54" s="113"/>
+      <c r="W54" s="101" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="W55" s="116" t="s">
+      <c r="W55" s="112" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="57" spans="2:23" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="179" t="s">
         <v>419</v>
       </c>
-      <c r="C57" s="130" t="s">
+      <c r="C57" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="130" t="s">
+      <c r="D57" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="130" t="s">
+      <c r="E57" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="F57" s="130" t="s">
+      <c r="F57" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="149" t="s">
+      <c r="G57" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="130" t="s">
+      <c r="H57" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="I57" s="130" t="s">
+      <c r="I57" s="125" t="s">
         <v>420</v>
       </c>
-      <c r="J57" s="130" t="s">
+      <c r="J57" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="K57" s="130" t="s">
+      <c r="K57" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="L57" s="130" t="s">
+      <c r="L57" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="M57" s="99" t="s">
+      <c r="M57" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="N57" s="99" t="s">
+      <c r="N57" s="95" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B58" s="150"/>
-      <c r="C58" s="147" t="s">
+      <c r="B58" s="179"/>
+      <c r="C58" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="147">
+      <c r="D58" s="137">
         <v>6200</v>
       </c>
-      <c r="E58" s="147" t="s">
+      <c r="E58" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="F58" s="147" t="s">
+      <c r="F58" s="137" t="s">
         <v>421</v>
       </c>
-      <c r="G58" s="148" t="s">
+      <c r="G58" s="138" t="s">
         <v>422</v>
       </c>
-      <c r="H58" s="147" t="s">
+      <c r="H58" s="137" t="s">
         <v>423</v>
       </c>
-      <c r="I58" s="147" t="s">
+      <c r="I58" s="137" t="s">
         <v>424</v>
       </c>
-      <c r="J58" s="147" t="s">
+      <c r="J58" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="K58" s="147" t="s">
+      <c r="K58" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="L58" s="147"/>
-      <c r="M58" s="103"/>
-      <c r="N58" s="103"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C59" s="147" t="s">
+      <c r="C59" s="137" t="s">
         <v>425</v>
       </c>
-      <c r="D59" s="147">
+      <c r="D59" s="137">
         <v>585</v>
       </c>
-      <c r="E59" s="147" t="s">
+      <c r="E59" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="F59" s="147" t="s">
+      <c r="F59" s="137" t="s">
         <v>426</v>
       </c>
-      <c r="G59" s="148" t="s">
+      <c r="G59" s="138" t="s">
         <v>427</v>
       </c>
-      <c r="H59" s="147" t="s">
+      <c r="H59" s="137" t="s">
         <v>428</v>
       </c>
-      <c r="I59" s="147" t="s">
+      <c r="I59" s="137" t="s">
         <v>424</v>
       </c>
-      <c r="J59" s="147" t="s">
+      <c r="J59" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="K59" s="147" t="s">
+      <c r="K59" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="L59" s="147"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="99"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C60" s="147" t="s">
+      <c r="C60" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="147">
+      <c r="D60" s="137">
         <v>6200</v>
       </c>
-      <c r="E60" s="147" t="s">
+      <c r="E60" s="137" t="s">
         <v>429</v>
       </c>
-      <c r="F60" s="147" t="s">
+      <c r="F60" s="137" t="s">
         <v>430</v>
       </c>
-      <c r="G60" s="148" t="s">
+      <c r="G60" s="138" t="s">
         <v>431</v>
       </c>
-      <c r="H60" s="147" t="s">
+      <c r="H60" s="137" t="s">
         <v>432</v>
       </c>
-      <c r="I60" s="147" t="s">
+      <c r="I60" s="137" t="s">
         <v>433</v>
       </c>
-      <c r="J60" s="147" t="s">
+      <c r="J60" s="137" t="s">
         <v>434</v>
       </c>
-      <c r="K60" s="147" t="s">
+      <c r="K60" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="L60" s="147"/>
-      <c r="M60" s="103"/>
-      <c r="N60" s="103"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
     </row>
     <row r="61" spans="2:23" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="M61" s="115" t="s">
+      <c r="M61" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="N61" s="107" t="s">
+      <c r="N61" s="103" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="M62" s="117"/>
-      <c r="N62" s="105" t="s">
+      <c r="M62" s="113"/>
+      <c r="N62" s="101" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="M63" s="117"/>
-      <c r="N63" s="105" t="s">
+      <c r="M63" s="113"/>
+      <c r="N63" s="101" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="N64" s="116" t="s">
+      <c r="N64" s="112" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="67" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="104" t="s">
         <v>443</v>
       </c>
-      <c r="C67" s="157" t="s">
+      <c r="C67" s="146" t="s">
         <v>350</v>
       </c>
-      <c r="D67" s="163" t="s">
+      <c r="D67" s="149" t="s">
         <v>174</v>
       </c>
-      <c r="E67" s="163" t="s">
+      <c r="E67" s="149" t="s">
         <v>435</v>
       </c>
-      <c r="F67" s="163" t="s">
+      <c r="F67" s="149" t="s">
         <v>436</v>
       </c>
-      <c r="G67" s="163" t="s">
+      <c r="G67" s="149" t="s">
         <v>437</v>
       </c>
-      <c r="H67" s="163" t="s">
+      <c r="H67" s="149" t="s">
         <v>438</v>
       </c>
-      <c r="I67" s="163" t="s">
+      <c r="I67" s="149" t="s">
         <v>439</v>
       </c>
-      <c r="J67" s="163" t="s">
+      <c r="J67" s="149" t="s">
         <v>440</v>
       </c>
-      <c r="K67" s="163" t="s">
+      <c r="K67" s="149" t="s">
         <v>441</v>
       </c>
-      <c r="L67" s="163" t="s">
+      <c r="L67" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="M67" s="157" t="s">
+      <c r="M67" s="146" t="s">
         <v>442</v>
       </c>
-      <c r="N67" s="99" t="s">
+      <c r="N67" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="O67" s="99" t="s">
+      <c r="O67" s="95" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C68" s="158" t="s">
+      <c r="C68" s="180" t="s">
         <v>444</v>
       </c>
-      <c r="D68" s="159" t="s">
+      <c r="D68" s="147" t="s">
         <v>445</v>
       </c>
-      <c r="E68" s="159" t="s">
+      <c r="E68" s="147" t="s">
         <v>446</v>
       </c>
-      <c r="F68" s="159"/>
-      <c r="G68" s="159"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="159" t="s">
+      <c r="F68" s="147"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="147"/>
+      <c r="I68" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="J68" s="159" t="s">
+      <c r="J68" s="147" t="s">
         <v>447</v>
       </c>
-      <c r="K68" s="159" t="s">
+      <c r="K68" s="147" t="s">
         <v>448</v>
       </c>
-      <c r="L68" s="159" t="s">
+      <c r="L68" s="147" t="s">
         <v>449</v>
       </c>
-      <c r="M68" s="159"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="103"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="99"/>
+      <c r="O68" s="99"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C69" s="160"/>
-      <c r="D69" s="159" t="s">
+      <c r="C69" s="181"/>
+      <c r="D69" s="147" t="s">
         <v>450</v>
       </c>
-      <c r="E69" s="159" t="s">
+      <c r="E69" s="147" t="s">
         <v>451</v>
       </c>
-      <c r="F69" s="159" t="s">
+      <c r="F69" s="147" t="s">
         <v>452</v>
       </c>
-      <c r="G69" s="159" t="s">
+      <c r="G69" s="147" t="s">
         <v>453</v>
       </c>
-      <c r="H69" s="161" t="s">
+      <c r="H69" s="148" t="s">
         <v>452</v>
       </c>
-      <c r="I69" s="159" t="s">
+      <c r="I69" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="J69" s="159" t="s">
+      <c r="J69" s="147" t="s">
         <v>454</v>
       </c>
-      <c r="K69" s="159" t="s">
+      <c r="K69" s="147" t="s">
         <v>455</v>
       </c>
-      <c r="L69" s="159"/>
-      <c r="M69" s="159" t="s">
+      <c r="L69" s="147"/>
+      <c r="M69" s="147" t="s">
         <v>459</v>
       </c>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C70" s="162"/>
-      <c r="D70" s="159" t="s">
+      <c r="C70" s="182"/>
+      <c r="D70" s="147" t="s">
         <v>456</v>
       </c>
-      <c r="E70" s="159" t="s">
+      <c r="E70" s="147" t="s">
         <v>457</v>
       </c>
-      <c r="F70" s="159" t="s">
+      <c r="F70" s="147" t="s">
         <v>452</v>
       </c>
-      <c r="G70" s="159" t="s">
+      <c r="G70" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="H70" s="159"/>
-      <c r="I70" s="159" t="s">
+      <c r="H70" s="147"/>
+      <c r="I70" s="147" t="s">
         <v>245</v>
       </c>
-      <c r="J70" s="159" t="s">
+      <c r="J70" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="K70" s="159" t="s">
+      <c r="K70" s="147" t="s">
         <v>240</v>
       </c>
-      <c r="L70" s="159" t="s">
+      <c r="L70" s="147" t="s">
         <v>458</v>
       </c>
-      <c r="M70" s="159"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="99"/>
+      <c r="O70" s="99"/>
     </row>
     <row r="71" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="N71" s="115" t="s">
+      <c r="N71" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="O71" s="107" t="s">
+      <c r="O71" s="103" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="N72" s="117"/>
-      <c r="O72" s="105" t="s">
+      <c r="N72" s="113"/>
+      <c r="O72" s="101" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="N73" s="117"/>
-      <c r="O73" s="105" t="s">
+      <c r="N73" s="113"/>
+      <c r="O73" s="101" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="O74" s="116" t="s">
+      <c r="O74" s="112" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="O75" s="116" t="s">
+      <c r="O75" s="112" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="76" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B77" s="168" t="s">
+      <c r="B77" s="154" t="s">
         <v>461</v>
       </c>
-      <c r="C77" s="169" t="s">
+      <c r="C77" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="D77" s="169" t="s">
+      <c r="D77" s="155" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="169" t="s">
+      <c r="E77" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="F77" s="169" t="s">
+      <c r="F77" s="155" t="s">
         <v>253</v>
       </c>
-      <c r="G77" s="169" t="s">
+      <c r="G77" s="155" t="s">
         <v>254</v>
       </c>
-      <c r="H77" s="169" t="s">
+      <c r="H77" s="155" t="s">
         <v>255</v>
       </c>
-      <c r="I77" s="169" t="s">
+      <c r="I77" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="J77" s="169" t="s">
+      <c r="J77" s="155" t="s">
         <v>257</v>
       </c>
-      <c r="K77" s="169" t="s">
+      <c r="K77" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="L77" s="169" t="s">
+      <c r="L77" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="M77" s="169" t="s">
+      <c r="M77" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="N77" s="170" t="s">
+      <c r="N77" s="156" t="s">
         <v>280</v>
       </c>
-      <c r="O77" s="171" t="s">
+      <c r="O77" s="157" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B78" s="172"/>
-      <c r="C78" s="139" t="s">
+      <c r="B78" s="158"/>
+      <c r="C78" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="147"/>
-      <c r="E78" s="147" t="s">
+      <c r="D78" s="137"/>
+      <c r="E78" s="137" t="s">
         <v>261</v>
       </c>
-      <c r="F78" s="147"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="147">
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137">
         <v>29307550</v>
       </c>
-      <c r="I78" s="147" t="s">
+      <c r="I78" s="137" t="s">
         <v>262</v>
       </c>
-      <c r="J78" s="147" t="s">
+      <c r="J78" s="137" t="s">
         <v>263</v>
       </c>
-      <c r="K78" s="147" t="s">
+      <c r="K78" s="137" t="s">
         <v>264</v>
       </c>
-      <c r="L78" s="147" t="s">
+      <c r="L78" s="137" t="s">
         <v>265</v>
       </c>
-      <c r="M78" s="165" t="s">
+      <c r="M78" s="151" t="s">
         <v>266</v>
       </c>
-      <c r="N78" s="103"/>
-      <c r="O78" s="173"/>
+      <c r="N78" s="99"/>
+      <c r="O78" s="159"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B79" s="172"/>
-      <c r="C79" s="139" t="s">
+      <c r="B79" s="158"/>
+      <c r="C79" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="D79" s="147" t="s">
+      <c r="D79" s="137" t="s">
         <v>267</v>
       </c>
-      <c r="E79" s="147" t="s">
+      <c r="E79" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="F79" s="147" t="s">
+      <c r="F79" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="G79" s="147" t="s">
+      <c r="G79" s="137" t="s">
         <v>270</v>
       </c>
-      <c r="H79" s="147">
+      <c r="H79" s="137">
         <v>27610265</v>
       </c>
-      <c r="I79" s="147" t="s">
+      <c r="I79" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="J79" s="147" t="s">
+      <c r="J79" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="K79" s="147" t="s">
+      <c r="K79" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="L79" s="147" t="s">
+      <c r="L79" s="137" t="s">
         <v>265</v>
       </c>
-      <c r="M79" s="165"/>
-      <c r="N79" s="103"/>
-      <c r="O79" s="173"/>
+      <c r="M79" s="151"/>
+      <c r="N79" s="99"/>
+      <c r="O79" s="159"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B80" s="172"/>
-      <c r="C80" s="139" t="s">
+      <c r="B80" s="158"/>
+      <c r="C80" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="D80" s="147"/>
-      <c r="E80" s="147" t="s">
+      <c r="D80" s="137"/>
+      <c r="E80" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="F80" s="147" t="s">
+      <c r="F80" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="G80" s="147" t="s">
+      <c r="G80" s="137" t="s">
         <v>270</v>
       </c>
-      <c r="H80" s="147">
+      <c r="H80" s="137">
         <v>83379950</v>
       </c>
-      <c r="I80" s="147" t="s">
+      <c r="I80" s="137" t="s">
         <v>464</v>
       </c>
-      <c r="J80" s="147" t="s">
+      <c r="J80" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="K80" s="147" t="s">
+      <c r="K80" s="137" t="s">
         <v>465</v>
       </c>
-      <c r="L80" s="147" t="s">
+      <c r="L80" s="137" t="s">
         <v>265</v>
       </c>
-      <c r="M80" s="165"/>
-      <c r="N80" s="103"/>
-      <c r="O80" s="173"/>
+      <c r="M80" s="151"/>
+      <c r="N80" s="99"/>
+      <c r="O80" s="159"/>
     </row>
     <row r="81" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="B81" s="172"/>
-      <c r="C81" s="166"/>
-      <c r="D81" s="166"/>
-      <c r="E81" s="166"/>
-      <c r="F81" s="166"/>
-      <c r="G81" s="166"/>
-      <c r="H81" s="166"/>
-      <c r="I81" s="166"/>
-      <c r="J81" s="166"/>
-      <c r="K81" s="166"/>
-      <c r="L81" s="166"/>
-      <c r="M81" s="166"/>
-      <c r="N81" s="115" t="s">
+      <c r="B81" s="158"/>
+      <c r="C81" s="152"/>
+      <c r="D81" s="152"/>
+      <c r="E81" s="152"/>
+      <c r="F81" s="152"/>
+      <c r="G81" s="152"/>
+      <c r="H81" s="152"/>
+      <c r="I81" s="152"/>
+      <c r="J81" s="152"/>
+      <c r="K81" s="152"/>
+      <c r="L81" s="152"/>
+      <c r="M81" s="152"/>
+      <c r="N81" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="O81" s="174" t="s">
+      <c r="O81" s="160" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B82" s="172"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="166"/>
-      <c r="E82" s="166"/>
-      <c r="F82" s="166"/>
-      <c r="G82" s="166"/>
-      <c r="H82" s="166"/>
-      <c r="I82" s="166"/>
-      <c r="J82" s="166"/>
-      <c r="K82" s="166"/>
-      <c r="L82" s="166"/>
-      <c r="M82" s="166"/>
-      <c r="N82" s="167"/>
-      <c r="O82" s="175" t="s">
+      <c r="B82" s="158"/>
+      <c r="C82" s="152"/>
+      <c r="D82" s="152"/>
+      <c r="E82" s="152"/>
+      <c r="F82" s="152"/>
+      <c r="G82" s="152"/>
+      <c r="H82" s="152"/>
+      <c r="I82" s="152"/>
+      <c r="J82" s="152"/>
+      <c r="K82" s="152"/>
+      <c r="L82" s="152"/>
+      <c r="M82" s="152"/>
+      <c r="N82" s="153"/>
+      <c r="O82" s="161" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B83" s="172"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
-      <c r="F83" s="166"/>
-      <c r="G83" s="166"/>
-      <c r="H83" s="166"/>
-      <c r="I83" s="166"/>
-      <c r="J83" s="166"/>
-      <c r="K83" s="166"/>
-      <c r="L83" s="166"/>
-      <c r="M83" s="166"/>
-      <c r="N83" s="167"/>
-      <c r="O83" s="175" t="s">
+      <c r="B83" s="158"/>
+      <c r="C83" s="152"/>
+      <c r="D83" s="152"/>
+      <c r="E83" s="152"/>
+      <c r="F83" s="152"/>
+      <c r="G83" s="152"/>
+      <c r="H83" s="152"/>
+      <c r="I83" s="152"/>
+      <c r="J83" s="152"/>
+      <c r="K83" s="152"/>
+      <c r="L83" s="152"/>
+      <c r="M83" s="152"/>
+      <c r="N83" s="153"/>
+      <c r="O83" s="161" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B84" s="172"/>
-      <c r="C84" s="166"/>
-      <c r="D84" s="166"/>
-      <c r="E84" s="166"/>
-      <c r="F84" s="166"/>
-      <c r="G84" s="166"/>
-      <c r="H84" s="166"/>
-      <c r="I84" s="166"/>
-      <c r="J84" s="166"/>
-      <c r="K84" s="166"/>
-      <c r="L84" s="166"/>
-      <c r="M84" s="166"/>
-      <c r="N84" s="167"/>
-      <c r="O84" s="175" t="s">
+      <c r="B84" s="158"/>
+      <c r="C84" s="152"/>
+      <c r="D84" s="152"/>
+      <c r="E84" s="152"/>
+      <c r="F84" s="152"/>
+      <c r="G84" s="152"/>
+      <c r="H84" s="152"/>
+      <c r="I84" s="152"/>
+      <c r="J84" s="152"/>
+      <c r="K84" s="152"/>
+      <c r="L84" s="152"/>
+      <c r="M84" s="152"/>
+      <c r="N84" s="153"/>
+      <c r="O84" s="161" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B85" s="172"/>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
-      <c r="F85" s="166"/>
-      <c r="G85" s="166"/>
-      <c r="H85" s="166"/>
-      <c r="I85" s="166"/>
-      <c r="J85" s="166"/>
-      <c r="K85" s="166"/>
-      <c r="L85" s="166"/>
-      <c r="M85" s="166"/>
-      <c r="N85" s="167"/>
-      <c r="O85" s="176" t="s">
+      <c r="B85" s="158"/>
+      <c r="C85" s="152"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="152"/>
+      <c r="F85" s="152"/>
+      <c r="G85" s="152"/>
+      <c r="H85" s="152"/>
+      <c r="I85" s="152"/>
+      <c r="J85" s="152"/>
+      <c r="K85" s="152"/>
+      <c r="L85" s="152"/>
+      <c r="M85" s="152"/>
+      <c r="N85" s="153"/>
+      <c r="O85" s="162" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="13.2" x14ac:dyDescent="0.15">
-      <c r="B86" s="172" t="s">
+      <c r="B86" s="158" t="s">
         <v>462</v>
       </c>
-      <c r="C86" s="164" t="s">
+      <c r="C86" s="150" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="164" t="s">
+      <c r="D86" s="150" t="s">
         <v>463</v>
       </c>
-      <c r="E86" s="164" t="s">
+      <c r="E86" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="F86" s="164" t="s">
+      <c r="F86" s="150" t="s">
         <v>257</v>
       </c>
-      <c r="G86" s="164" t="s">
+      <c r="G86" s="150" t="s">
         <v>258</v>
       </c>
-      <c r="H86" s="164" t="s">
+      <c r="H86" s="150" t="s">
         <v>259</v>
       </c>
-      <c r="I86" s="164" t="s">
+      <c r="I86" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="J86" s="99" t="s">
+      <c r="J86" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="K86" s="99" t="s">
+      <c r="K86" s="95" t="s">
         <v>292</v>
       </c>
-      <c r="L86" s="166"/>
-      <c r="M86" s="166"/>
-      <c r="N86" s="166"/>
-      <c r="O86" s="177"/>
+      <c r="L86" s="152"/>
+      <c r="M86" s="152"/>
+      <c r="N86" s="152"/>
+      <c r="O86" s="163"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B87" s="172"/>
-      <c r="C87" s="139" t="s">
+      <c r="B87" s="158"/>
+      <c r="C87" s="134" t="s">
         <v>271</v>
       </c>
-      <c r="D87" s="139">
+      <c r="D87" s="134">
         <v>1</v>
       </c>
-      <c r="E87" s="139">
+      <c r="E87" s="134">
         <v>83379011</v>
       </c>
-      <c r="F87" s="139" t="s">
+      <c r="F87" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="G87" s="139" t="s">
+      <c r="G87" s="134" t="s">
         <v>466</v>
       </c>
-      <c r="H87" s="139" t="s">
+      <c r="H87" s="134" t="s">
         <v>265</v>
       </c>
-      <c r="I87" s="139" t="s">
+      <c r="I87" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="J87" s="103"/>
-      <c r="K87" s="103"/>
-      <c r="L87" s="166"/>
-      <c r="M87" s="166"/>
-      <c r="N87" s="166"/>
-      <c r="O87" s="177"/>
+      <c r="J87" s="99"/>
+      <c r="K87" s="99"/>
+      <c r="L87" s="152"/>
+      <c r="M87" s="152"/>
+      <c r="N87" s="152"/>
+      <c r="O87" s="163"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B88" s="172"/>
-      <c r="C88" s="139" t="s">
+      <c r="B88" s="158"/>
+      <c r="C88" s="134" t="s">
         <v>464</v>
       </c>
-      <c r="D88" s="139">
+      <c r="D88" s="134">
         <v>4</v>
       </c>
-      <c r="E88" s="139">
+      <c r="E88" s="134">
         <v>83379950</v>
       </c>
-      <c r="F88" s="139" t="s">
+      <c r="F88" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="G88" s="139" t="s">
+      <c r="G88" s="134" t="s">
         <v>465</v>
       </c>
-      <c r="H88" s="139" t="s">
+      <c r="H88" s="134" t="s">
         <v>265</v>
       </c>
-      <c r="I88" s="139" t="s">
+      <c r="I88" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="166"/>
-      <c r="M88" s="166"/>
-      <c r="N88" s="166"/>
-      <c r="O88" s="177"/>
+      <c r="J88" s="99"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="152"/>
+      <c r="M88" s="152"/>
+      <c r="N88" s="152"/>
+      <c r="O88" s="163"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B89" s="172"/>
-      <c r="C89" s="139" t="s">
+      <c r="B89" s="158"/>
+      <c r="C89" s="134" t="s">
         <v>468</v>
       </c>
-      <c r="D89" s="139">
+      <c r="D89" s="134">
         <v>1</v>
       </c>
-      <c r="E89" s="139">
+      <c r="E89" s="134">
         <v>83379909</v>
       </c>
-      <c r="F89" s="139" t="s">
+      <c r="F89" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="G89" s="139" t="s">
+      <c r="G89" s="134" t="s">
         <v>468</v>
       </c>
-      <c r="H89" s="139" t="s">
+      <c r="H89" s="134" t="s">
         <v>265</v>
       </c>
-      <c r="I89" s="139" t="s">
+      <c r="I89" s="134" t="s">
         <v>467</v>
       </c>
-      <c r="J89" s="103"/>
-      <c r="K89" s="103"/>
-      <c r="L89" s="166"/>
-      <c r="M89" s="166"/>
-      <c r="N89" s="166"/>
-      <c r="O89" s="177"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="152"/>
+      <c r="M89" s="152"/>
+      <c r="N89" s="152"/>
+      <c r="O89" s="163"/>
     </row>
     <row r="90" spans="2:15" ht="19.2" x14ac:dyDescent="0.15">
-      <c r="B90" s="172"/>
-      <c r="C90" s="166"/>
-      <c r="D90" s="166"/>
-      <c r="E90" s="166"/>
-      <c r="F90" s="166"/>
-      <c r="G90" s="166"/>
-      <c r="H90" s="166"/>
-      <c r="I90" s="166"/>
-      <c r="J90" s="115" t="s">
+      <c r="B90" s="158"/>
+      <c r="C90" s="152"/>
+      <c r="D90" s="152"/>
+      <c r="E90" s="152"/>
+      <c r="F90" s="152"/>
+      <c r="G90" s="152"/>
+      <c r="H90" s="152"/>
+      <c r="I90" s="152"/>
+      <c r="J90" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="K90" s="107" t="s">
+      <c r="K90" s="103" t="s">
         <v>293</v>
       </c>
-      <c r="L90" s="166"/>
-      <c r="M90" s="166"/>
-      <c r="N90" s="166"/>
-      <c r="O90" s="177"/>
+      <c r="L90" s="152"/>
+      <c r="M90" s="152"/>
+      <c r="N90" s="152"/>
+      <c r="O90" s="163"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B91" s="172"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="166"/>
-      <c r="E91" s="166"/>
-      <c r="F91" s="166"/>
-      <c r="G91" s="166"/>
-      <c r="H91" s="166"/>
-      <c r="I91" s="166"/>
-      <c r="J91" s="167"/>
-      <c r="K91" s="105" t="s">
+      <c r="B91" s="158"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="152"/>
+      <c r="F91" s="152"/>
+      <c r="G91" s="152"/>
+      <c r="H91" s="152"/>
+      <c r="I91" s="152"/>
+      <c r="J91" s="153"/>
+      <c r="K91" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="L91" s="166"/>
-      <c r="M91" s="166"/>
-      <c r="N91" s="166"/>
-      <c r="O91" s="177"/>
+      <c r="L91" s="152"/>
+      <c r="M91" s="152"/>
+      <c r="N91" s="152"/>
+      <c r="O91" s="163"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B92" s="172"/>
-      <c r="C92" s="166"/>
-      <c r="D92" s="166"/>
-      <c r="E92" s="166"/>
-      <c r="F92" s="166"/>
-      <c r="G92" s="166"/>
-      <c r="H92" s="166"/>
-      <c r="I92" s="166"/>
-      <c r="J92" s="167"/>
-      <c r="K92" s="105" t="s">
+      <c r="B92" s="158"/>
+      <c r="C92" s="152"/>
+      <c r="D92" s="152"/>
+      <c r="E92" s="152"/>
+      <c r="F92" s="152"/>
+      <c r="G92" s="152"/>
+      <c r="H92" s="152"/>
+      <c r="I92" s="152"/>
+      <c r="J92" s="153"/>
+      <c r="K92" s="101" t="s">
         <v>469</v>
       </c>
-      <c r="L92" s="166"/>
-      <c r="M92" s="166"/>
-      <c r="N92" s="166"/>
-      <c r="O92" s="177"/>
+      <c r="L92" s="152"/>
+      <c r="M92" s="152"/>
+      <c r="N92" s="152"/>
+      <c r="O92" s="163"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B93" s="172"/>
-      <c r="C93" s="166"/>
-      <c r="D93" s="166"/>
-      <c r="E93" s="166"/>
-      <c r="F93" s="166"/>
-      <c r="G93" s="166"/>
-      <c r="H93" s="166"/>
-      <c r="I93" s="166"/>
-      <c r="J93" s="167"/>
-      <c r="K93" s="105" t="s">
+      <c r="B93" s="158"/>
+      <c r="C93" s="152"/>
+      <c r="D93" s="152"/>
+      <c r="E93" s="152"/>
+      <c r="F93" s="152"/>
+      <c r="G93" s="152"/>
+      <c r="H93" s="152"/>
+      <c r="I93" s="152"/>
+      <c r="J93" s="153"/>
+      <c r="K93" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="L93" s="166"/>
-      <c r="M93" s="166"/>
-      <c r="N93" s="166"/>
-      <c r="O93" s="177"/>
+      <c r="L93" s="152"/>
+      <c r="M93" s="152"/>
+      <c r="N93" s="152"/>
+      <c r="O93" s="163"/>
     </row>
     <row r="94" spans="2:15" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="178"/>
-      <c r="C94" s="179"/>
-      <c r="D94" s="179"/>
-      <c r="E94" s="179"/>
-      <c r="F94" s="179"/>
-      <c r="G94" s="179"/>
-      <c r="H94" s="179"/>
-      <c r="I94" s="179"/>
-      <c r="J94" s="180"/>
-      <c r="K94" s="181" t="s">
+      <c r="B94" s="164"/>
+      <c r="C94" s="165"/>
+      <c r="D94" s="165"/>
+      <c r="E94" s="165"/>
+      <c r="F94" s="165"/>
+      <c r="G94" s="165"/>
+      <c r="H94" s="165"/>
+      <c r="I94" s="165"/>
+      <c r="J94" s="166"/>
+      <c r="K94" s="167" t="s">
         <v>301</v>
       </c>
-      <c r="L94" s="179"/>
-      <c r="M94" s="179"/>
-      <c r="N94" s="179"/>
-      <c r="O94" s="182"/>
+      <c r="L94" s="165"/>
+      <c r="M94" s="165"/>
+      <c r="N94" s="165"/>
+      <c r="O94" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="J46:J47"/>
     <mergeCell ref="V46:V47"/>
     <mergeCell ref="W46:W47"/>
     <mergeCell ref="B57:B58"/>
@@ -7826,10 +7830,6 @@
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="J46:J47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
